--- a/processed/Summary.xlsx
+++ b/processed/Summary.xlsx
@@ -13,7 +13,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" count="3116" uniqueCount="266">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" count="3964" uniqueCount="266">
   <si>
     <t>Variante</t>
   </si>
@@ -881,7 +881,7 @@
   <cols>
     <col min="1" max="1" width="10.7109375" customWidth="true"/>
     <col min="2" max="2" width="8.42578125" customWidth="true"/>
-    <col min="3" max="3" width="12.7109375" customWidth="true"/>
+    <col min="3" max="3" width="13.7109375" customWidth="true"/>
     <col min="4" max="4" width="11.7109375" customWidth="true"/>
     <col min="5" max="5" width="27.7109375" customWidth="true"/>
   </cols>
@@ -911,7 +911,7 @@
         <v>154</v>
       </c>
       <c r="C2" s="0">
-        <v>0.79539173333318891</v>
+        <v>-1.6284588757213758</v>
       </c>
       <c r="D2" s="0">
         <v>29.081982299812765</v>
@@ -928,7 +928,7 @@
         <v>155</v>
       </c>
       <c r="C3" s="0">
-        <v>10.62896932506376</v>
+        <v>7.7294639185805094</v>
       </c>
       <c r="D3" s="0">
         <v>36.848834499984847</v>
@@ -945,7 +945,7 @@
         <v>156</v>
       </c>
       <c r="C4" s="0">
-        <v>3.7072400373798278</v>
+        <v>1.0181516778011752</v>
       </c>
       <c r="D4" s="0">
         <v>31.825511447688712</v>
@@ -962,7 +962,7 @@
         <v>157</v>
       </c>
       <c r="C5" s="0">
-        <v>-1.0183223131017889</v>
+        <v>-3.2570716042630545</v>
       </c>
       <c r="D5" s="0">
         <v>26.716473878512392</v>
@@ -979,7 +979,7 @@
         <v>158</v>
       </c>
       <c r="C6" s="0">
-        <v>14.884194431983333</v>
+        <v>12.124976719482525</v>
       </c>
       <c r="D6" s="0">
         <v>39.013342086234999</v>
@@ -996,7 +996,7 @@
         <v>159</v>
       </c>
       <c r="C7" s="0">
-        <v>9.4142528043678446</v>
+        <v>6.7178730448699806</v>
       </c>
       <c r="D7" s="0">
         <v>33.335887048974023</v>
@@ -1013,7 +1013,7 @@
         <v>160</v>
       </c>
       <c r="C8" s="0">
-        <v>3.7249524308312472</v>
+        <v>1.2000368190287229</v>
       </c>
       <c r="D8" s="0">
         <v>27.023676017181707</v>
@@ -1030,7 +1030,7 @@
         <v>161</v>
       </c>
       <c r="C9" s="0">
-        <v>4.2225894874446368</v>
+        <v>1.3377568132140803</v>
       </c>
       <c r="D9" s="0">
         <v>30.764214575512515</v>
@@ -1047,7 +1047,7 @@
         <v>162</v>
       </c>
       <c r="C10" s="0">
-        <v>3.686611240378106</v>
+        <v>0.86349140891521037</v>
       </c>
       <c r="D10" s="0">
         <v>29.344443542008083</v>
@@ -1064,7 +1064,7 @@
         <v>163</v>
       </c>
       <c r="C11" s="0">
-        <v>0.23987590952359489</v>
+        <v>-2.6404856851369907</v>
       </c>
       <c r="D11" s="0">
         <v>27.4259629863245</v>
@@ -1081,7 +1081,7 @@
         <v>164</v>
       </c>
       <c r="C12" s="0">
-        <v>4.2607730014557639</v>
+        <v>1.9465579190914859</v>
       </c>
       <c r="D12" s="0">
         <v>31.119231442129145</v>
@@ -1098,7 +1098,7 @@
         <v>165</v>
       </c>
       <c r="C13" s="0">
-        <v>4.5545740909441355</v>
+        <v>2.0145305627847616</v>
       </c>
       <c r="D13" s="0">
         <v>33.127048289489856</v>
@@ -1115,7 +1115,7 @@
         <v>166</v>
       </c>
       <c r="C14" s="0">
-        <v>4.9971961364049102</v>
+        <v>2.1472934785785815</v>
       </c>
       <c r="D14" s="0">
         <v>31.492770846383067</v>
@@ -1132,7 +1132,7 @@
         <v>167</v>
       </c>
       <c r="C15" s="0">
-        <v>-1.8290623658833207</v>
+        <v>-4.345516737669163</v>
       </c>
       <c r="D15" s="0">
         <v>26.81496104912253</v>
@@ -1149,7 +1149,7 @@
         <v>168</v>
       </c>
       <c r="C16" s="0">
-        <v>9.310136455116357</v>
+        <v>6.969507487618535</v>
       </c>
       <c r="D16" s="0">
         <v>37.185915717318778</v>
@@ -1166,7 +1166,7 @@
         <v>169</v>
       </c>
       <c r="C17" s="0">
-        <v>0.50181969502693291</v>
+        <v>-2.165127454279848</v>
       </c>
       <c r="D17" s="0">
         <v>27.719011732925701</v>
@@ -1183,7 +1183,7 @@
         <v>154</v>
       </c>
       <c r="C18" s="0">
-        <v>4.6468476496115034</v>
+        <v>1.7769958795725602</v>
       </c>
       <c r="D18" s="0">
         <v>27.942997423858319</v>
@@ -1200,7 +1200,7 @@
         <v>155</v>
       </c>
       <c r="C19" s="0">
-        <v>10.940706989664877</v>
+        <v>7.9804072578967578</v>
       </c>
       <c r="D19" s="0">
         <v>35.141421394255779</v>
@@ -1217,7 +1217,7 @@
         <v>156</v>
       </c>
       <c r="C20" s="0">
-        <v>5.7588917969934528</v>
+        <v>2.9651858558577842</v>
       </c>
       <c r="D20" s="0">
         <v>28.729776453826069</v>
@@ -1234,7 +1234,7 @@
         <v>157</v>
       </c>
       <c r="C21" s="0">
-        <v>2.5845247342840993</v>
+        <v>-0.26085353817997697</v>
       </c>
       <c r="D21" s="0">
         <v>24.898844069518994</v>
@@ -1251,7 +1251,7 @@
         <v>158</v>
       </c>
       <c r="C22" s="0">
-        <v>15.564140654835185</v>
+        <v>12.681333784819364</v>
       </c>
       <c r="D22" s="0">
         <v>37.161051181579495</v>
@@ -1268,7 +1268,7 @@
         <v>159</v>
       </c>
       <c r="C23" s="0">
-        <v>11.638753840440694</v>
+        <v>8.8734503042086921</v>
       </c>
       <c r="D23" s="0">
         <v>31.373686051202036</v>
@@ -1285,7 +1285,7 @@
         <v>160</v>
       </c>
       <c r="C24" s="0">
-        <v>6.7822175509934528</v>
+        <v>4.125038312286379</v>
       </c>
       <c r="D24" s="0">
         <v>28.303086614794616</v>
@@ -1302,7 +1302,7 @@
         <v>161</v>
       </c>
       <c r="C25" s="0">
-        <v>4.1728880139409848</v>
+        <v>1.2206703311181963</v>
       </c>
       <c r="D25" s="0">
         <v>28.112551325684741</v>
@@ -1319,7 +1319,7 @@
         <v>162</v>
       </c>
       <c r="C26" s="0">
-        <v>4.1786213744969256</v>
+        <v>1.2402820414334734</v>
       </c>
       <c r="D26" s="0">
         <v>28.799651839799076</v>
@@ -1336,7 +1336,7 @@
         <v>163</v>
       </c>
       <c r="C27" s="0">
-        <v>5.6696718440016323</v>
+        <v>2.7529712211931043</v>
       </c>
       <c r="D27" s="0">
         <v>27.143842151874559</v>
@@ -1353,7 +1353,7 @@
         <v>164</v>
       </c>
       <c r="C28" s="0">
-        <v>5.1058229793290568</v>
+        <v>2.3813862973120319</v>
       </c>
       <c r="D28" s="0">
         <v>28.422548836037631</v>
@@ -1370,7 +1370,7 @@
         <v>165</v>
       </c>
       <c r="C29" s="0">
-        <v>6.4661739151591169</v>
+        <v>3.6376501034478217</v>
       </c>
       <c r="D29" s="0">
         <v>28.685726527608523</v>
@@ -1387,7 +1387,7 @@
         <v>166</v>
       </c>
       <c r="C30" s="0">
-        <v>6.5899020971889142</v>
+        <v>3.6016517973044602</v>
       </c>
       <c r="D30" s="0">
         <v>30.47104250685177</v>
@@ -1404,7 +1404,7 @@
         <v>167</v>
       </c>
       <c r="C31" s="0">
-        <v>2.3290142283972775</v>
+        <v>-0.44984398005564441</v>
       </c>
       <c r="D31" s="0">
         <v>25.588110310369032</v>
@@ -1421,7 +1421,7 @@
         <v>168</v>
       </c>
       <c r="C32" s="0">
-        <v>11.812636317209728</v>
+        <v>9.096646837825773</v>
       </c>
       <c r="D32" s="0">
         <v>33.507446960175727</v>
@@ -1438,7 +1438,7 @@
         <v>169</v>
       </c>
       <c r="C33" s="0">
-        <v>6.6491959516058632</v>
+        <v>3.8596977287827023</v>
       </c>
       <c r="D33" s="0">
         <v>28.684783959220521</v>
@@ -1455,7 +1455,7 @@
         <v>170</v>
       </c>
       <c r="C34" s="0">
-        <v>3.4967651296816253</v>
+        <v>0.88236415583371919</v>
       </c>
       <c r="D34" s="0">
         <v>26.272804420315335</v>
@@ -1472,7 +1472,7 @@
         <v>154</v>
       </c>
       <c r="C35" s="0">
-        <v>0.8121041751302317</v>
+        <v>-1.5926048073201189</v>
       </c>
       <c r="D35" s="0">
         <v>29.180767440905989</v>
@@ -1489,7 +1489,7 @@
         <v>155</v>
       </c>
       <c r="C36" s="0">
-        <v>12.043858546679363</v>
+        <v>9.1571074433630422</v>
       </c>
       <c r="D36" s="0">
         <v>35.983306207813605</v>
@@ -1506,7 +1506,7 @@
         <v>156</v>
       </c>
       <c r="C37" s="0">
-        <v>4.6164279378874582</v>
+        <v>2.1626035247595334</v>
       </c>
       <c r="D37" s="0">
         <v>30.246752839600891</v>
@@ -1523,7 +1523,7 @@
         <v>157</v>
       </c>
       <c r="C38" s="0">
-        <v>3.5669432456344001</v>
+        <v>1.2062356614536722</v>
       </c>
       <c r="D38" s="0">
         <v>30.723061968896314</v>
@@ -1540,7 +1540,7 @@
         <v>158</v>
       </c>
       <c r="C39" s="0">
-        <v>13.865361612214747</v>
+        <v>11.161044860925244</v>
       </c>
       <c r="D39" s="0">
         <v>36.754950351005888</v>
@@ -1557,7 +1557,7 @@
         <v>159</v>
       </c>
       <c r="C40" s="0">
-        <v>9.8741215839119452</v>
+        <v>7.2278431260310381</v>
       </c>
       <c r="D40" s="0">
         <v>32.289450850527203</v>
@@ -1574,7 +1574,7 @@
         <v>160</v>
       </c>
       <c r="C41" s="0">
-        <v>6.3728676144317697</v>
+        <v>3.8533738626214964</v>
       </c>
       <c r="D41" s="0">
         <v>28.989725469274703</v>
@@ -1591,7 +1591,7 @@
         <v>161</v>
       </c>
       <c r="C42" s="0">
-        <v>1.890787548026696</v>
+        <v>-0.94955164839514761</v>
       </c>
       <c r="D42" s="0">
         <v>31.135843611293215</v>
@@ -1608,7 +1608,7 @@
         <v>162</v>
       </c>
       <c r="C43" s="0">
-        <v>1.5458802468768678</v>
+        <v>-1.1563118252655979</v>
       </c>
       <c r="D43" s="0">
         <v>29.733213099256027</v>
@@ -1625,7 +1625,7 @@
         <v>163</v>
       </c>
       <c r="C44" s="0">
-        <v>0.18898679741558722</v>
+        <v>-2.6761030707810045</v>
       </c>
       <c r="D44" s="0">
         <v>29.40152238361452</v>
@@ -1642,7 +1642,7 @@
         <v>164</v>
       </c>
       <c r="C45" s="0">
-        <v>4.4289830069458693</v>
+        <v>2.0866430241310368</v>
       </c>
       <c r="D45" s="0">
         <v>33.262782811246495</v>
@@ -1659,7 +1659,7 @@
         <v>165</v>
       </c>
       <c r="C46" s="0">
-        <v>4.770681731695757</v>
+        <v>2.0745183813364627</v>
       </c>
       <c r="D46" s="0">
         <v>32.130654580428114</v>
@@ -1676,7 +1676,7 @@
         <v>166</v>
       </c>
       <c r="C47" s="0">
-        <v>4.4828361584382224</v>
+        <v>1.7193816869598424</v>
       </c>
       <c r="D47" s="0">
         <v>31.742837456040224</v>
@@ -1693,7 +1693,7 @@
         <v>167</v>
       </c>
       <c r="C48" s="0">
-        <v>-2.5379904623893239</v>
+        <v>-4.6349061272180805</v>
       </c>
       <c r="D48" s="0">
         <v>27.265342283573272</v>
@@ -1710,7 +1710,7 @@
         <v>168</v>
       </c>
       <c r="C49" s="0">
-        <v>8.5735029481088869</v>
+        <v>6.1565345923152393</v>
       </c>
       <c r="D49" s="0">
         <v>37.519516261631438</v>
@@ -1727,7 +1727,7 @@
         <v>169</v>
       </c>
       <c r="C50" s="0">
-        <v>2.5718651712407197</v>
+        <v>-0.3711430873132055</v>
       </c>
       <c r="D50" s="0">
         <v>30.373106606002473</v>
@@ -1744,7 +1744,7 @@
         <v>171</v>
       </c>
       <c r="C51" s="0">
-        <v>-1.1476543410064768</v>
+        <v>-3.9754611366782458</v>
       </c>
       <c r="D51" s="0">
         <v>26.630961783739107</v>
@@ -1761,7 +1761,7 @@
         <v>170</v>
       </c>
       <c r="C52" s="0">
-        <v>-3.4437694709990865</v>
+        <v>-5.875161053023243</v>
       </c>
       <c r="D52" s="0">
         <v>24.974687650575639</v>
@@ -1778,7 +1778,7 @@
         <v>172</v>
       </c>
       <c r="C53" s="0">
-        <v>-1.2521468314287332</v>
+        <v>-3.7573565773260964</v>
       </c>
       <c r="D53" s="0">
         <v>27.702580141314481</v>
@@ -1795,7 +1795,7 @@
         <v>154</v>
       </c>
       <c r="C54" s="0">
-        <v>3.895373672851929</v>
+        <v>1.1448771997014218</v>
       </c>
       <c r="D54" s="0">
         <v>30.362582137792614</v>
@@ -1812,7 +1812,7 @@
         <v>155</v>
       </c>
       <c r="C55" s="0">
-        <v>10.21275601275488</v>
+        <v>7.2625474906870027</v>
       </c>
       <c r="D55" s="0">
         <v>34.990640809950392</v>
@@ -1829,7 +1829,7 @@
         <v>156</v>
       </c>
       <c r="C56" s="0">
-        <v>6.8608978971670673</v>
+        <v>4.2377042580507958</v>
       </c>
       <c r="D56" s="0">
         <v>31.028341501552422</v>
@@ -1846,7 +1846,7 @@
         <v>157</v>
       </c>
       <c r="C57" s="0">
-        <v>3.2076734245266714</v>
+        <v>0.31262069977909013</v>
       </c>
       <c r="D57" s="0">
         <v>28.621352082007991</v>
@@ -1863,7 +1863,7 @@
         <v>158</v>
       </c>
       <c r="C58" s="0">
-        <v>15.340717496371781</v>
+        <v>12.453075544294133</v>
       </c>
       <c r="D58" s="0">
         <v>37.739441940276457</v>
@@ -1880,7 +1880,7 @@
         <v>159</v>
       </c>
       <c r="C59" s="0">
-        <v>8.363776325712438</v>
+        <v>5.4330375810589802</v>
       </c>
       <c r="D59" s="0">
         <v>33.038893219919878</v>
@@ -1897,7 +1897,7 @@
         <v>160</v>
       </c>
       <c r="C60" s="0">
-        <v>3.8665068138515868</v>
+        <v>1.1561028148207497</v>
       </c>
       <c r="D60" s="0">
         <v>29.181151606017607</v>
@@ -1914,7 +1914,7 @@
         <v>161</v>
       </c>
       <c r="C61" s="0">
-        <v>4.9727296595293078</v>
+        <v>2.1954392343882963</v>
       </c>
       <c r="D61" s="0">
         <v>29.931413852667337</v>
@@ -1931,7 +1931,7 @@
         <v>162</v>
       </c>
       <c r="C62" s="0">
-        <v>4.186156143726981</v>
+        <v>1.3654868179444437</v>
       </c>
       <c r="D62" s="0">
         <v>29.873696574957446</v>
@@ -1948,7 +1948,7 @@
         <v>163</v>
       </c>
       <c r="C63" s="0">
-        <v>-1.5395497336032862</v>
+        <v>-4.3490083019396888</v>
       </c>
       <c r="D63" s="0">
         <v>28.582436101440827</v>
@@ -1965,7 +1965,7 @@
         <v>164</v>
       </c>
       <c r="C64" s="0">
-        <v>6.7561440428979047</v>
+        <v>4.0970141097864552</v>
       </c>
       <c r="D64" s="0">
         <v>32.814707484732772</v>
@@ -1982,7 +1982,7 @@
         <v>165</v>
       </c>
       <c r="C65" s="0">
-        <v>5.0902374894427682</v>
+        <v>2.5721513829474607</v>
       </c>
       <c r="D65" s="0">
         <v>30.953753930836797</v>
@@ -1999,7 +1999,7 @@
         <v>166</v>
       </c>
       <c r="C66" s="0">
-        <v>2.8626555728864207</v>
+        <v>0.07271415398842615</v>
       </c>
       <c r="D66" s="0">
         <v>32.006657448948715</v>
@@ -2016,7 +2016,7 @@
         <v>167</v>
       </c>
       <c r="C67" s="0">
-        <v>3.0056686902457002</v>
+        <v>0.28823128981657981</v>
       </c>
       <c r="D67" s="0">
         <v>30.043194416070705</v>
@@ -2033,7 +2033,7 @@
         <v>168</v>
       </c>
       <c r="C68" s="0">
-        <v>12.566279388221432</v>
+        <v>9.8968219824114971</v>
       </c>
       <c r="D68" s="0">
         <v>38.025127653679782</v>
@@ -2050,7 +2050,7 @@
         <v>169</v>
       </c>
       <c r="C69" s="0">
-        <v>-1.1595225250287224</v>
+        <v>-3.952149790621263</v>
       </c>
       <c r="D69" s="0">
         <v>26.758253067677554</v>
@@ -2067,7 +2067,7 @@
         <v>170</v>
       </c>
       <c r="C70" s="0">
-        <v>0.62048861345566264</v>
+        <v>-1.9968318930360383</v>
       </c>
       <c r="D70" s="0">
         <v>28.679373608151021</v>

--- a/processed/Summary.xlsx
+++ b/processed/Summary.xlsx
@@ -13,7 +13,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" count="3964" uniqueCount="266">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" count="4176" uniqueCount="266">
   <si>
     <t>Variante</t>
   </si>
@@ -911,7 +911,7 @@
         <v>154</v>
       </c>
       <c r="C2" s="0">
-        <v>-1.6284588757213758</v>
+        <v>-1.6311487155457698</v>
       </c>
       <c r="D2" s="0">
         <v>29.081982299812765</v>
@@ -928,7 +928,7 @@
         <v>155</v>
       </c>
       <c r="C3" s="0">
-        <v>7.7294639185805094</v>
+        <v>7.7289613976235874</v>
       </c>
       <c r="D3" s="0">
         <v>36.848834499984847</v>
@@ -945,7 +945,7 @@
         <v>156</v>
       </c>
       <c r="C4" s="0">
-        <v>1.0181516778011752</v>
+        <v>1.0171527473771649</v>
       </c>
       <c r="D4" s="0">
         <v>31.825511447688712</v>
@@ -962,7 +962,7 @@
         <v>157</v>
       </c>
       <c r="C5" s="0">
-        <v>-3.2570716042630545</v>
+        <v>-3.2582132929017158</v>
       </c>
       <c r="D5" s="0">
         <v>26.716473878512392</v>
@@ -979,7 +979,7 @@
         <v>158</v>
       </c>
       <c r="C6" s="0">
-        <v>12.124976719482525</v>
+        <v>12.124702124345212</v>
       </c>
       <c r="D6" s="0">
         <v>39.013342086234999</v>
@@ -996,7 +996,7 @@
         <v>159</v>
       </c>
       <c r="C7" s="0">
-        <v>6.7178730448699806</v>
+        <v>6.7173384244219259</v>
       </c>
       <c r="D7" s="0">
         <v>33.335887048974023</v>
@@ -1013,7 +1013,7 @@
         <v>160</v>
       </c>
       <c r="C8" s="0">
-        <v>1.2000368190287229</v>
+        <v>1.1984459838551056</v>
       </c>
       <c r="D8" s="0">
         <v>27.023676017181707</v>
@@ -1030,7 +1030,7 @@
         <v>161</v>
       </c>
       <c r="C9" s="0">
-        <v>1.3377568132140803</v>
+        <v>1.3362167414216035</v>
       </c>
       <c r="D9" s="0">
         <v>30.764214575512515</v>
@@ -1047,7 +1047,7 @@
         <v>162</v>
       </c>
       <c r="C10" s="0">
-        <v>0.86349140891521037</v>
+        <v>0.86143284335635384</v>
       </c>
       <c r="D10" s="0">
         <v>29.344443542008083</v>
@@ -1064,7 +1064,7 @@
         <v>163</v>
       </c>
       <c r="C11" s="0">
-        <v>-2.6404856851369907</v>
+        <v>-2.6426581070624349</v>
       </c>
       <c r="D11" s="0">
         <v>27.4259629863245</v>
@@ -1081,7 +1081,7 @@
         <v>164</v>
       </c>
       <c r="C12" s="0">
-        <v>1.9465579190914859</v>
+        <v>1.9450925991110013</v>
       </c>
       <c r="D12" s="0">
         <v>31.119231442129145</v>
@@ -1098,7 +1098,7 @@
         <v>165</v>
       </c>
       <c r="C13" s="0">
-        <v>2.0145305627847616</v>
+        <v>2.0128029537280083</v>
       </c>
       <c r="D13" s="0">
         <v>33.127048289489856</v>
@@ -1115,7 +1115,7 @@
         <v>166</v>
       </c>
       <c r="C14" s="0">
-        <v>2.1472934785785815</v>
+        <v>2.1458938521189759</v>
       </c>
       <c r="D14" s="0">
         <v>31.492770846383067</v>
@@ -1132,7 +1132,7 @@
         <v>167</v>
       </c>
       <c r="C15" s="0">
-        <v>-4.345516737669163</v>
+        <v>-4.3479132289228879</v>
       </c>
       <c r="D15" s="0">
         <v>26.81496104912253</v>
@@ -1149,7 +1149,7 @@
         <v>168</v>
       </c>
       <c r="C16" s="0">
-        <v>6.969507487618535</v>
+        <v>6.9686221846149223</v>
       </c>
       <c r="D16" s="0">
         <v>37.185915717318778</v>
@@ -1183,7 +1183,7 @@
         <v>154</v>
       </c>
       <c r="C18" s="0">
-        <v>1.7769958795725602</v>
+        <v>1.775389540017569</v>
       </c>
       <c r="D18" s="0">
         <v>27.942997423858319</v>
@@ -1200,7 +1200,7 @@
         <v>155</v>
       </c>
       <c r="C19" s="0">
-        <v>7.9804072578967578</v>
+        <v>7.9798839640489376</v>
       </c>
       <c r="D19" s="0">
         <v>35.141421394255779</v>
@@ -1217,7 +1217,7 @@
         <v>156</v>
       </c>
       <c r="C20" s="0">
-        <v>2.9651858558577842</v>
+        <v>2.964132652973539</v>
       </c>
       <c r="D20" s="0">
         <v>28.729776453826069</v>
@@ -1234,7 +1234,7 @@
         <v>157</v>
       </c>
       <c r="C21" s="0">
-        <v>-0.26085353817997697</v>
+        <v>-0.2619307679007416</v>
       </c>
       <c r="D21" s="0">
         <v>24.898844069518994</v>
@@ -1251,7 +1251,7 @@
         <v>158</v>
       </c>
       <c r="C22" s="0">
-        <v>12.681333784819364</v>
+        <v>12.681062233137583</v>
       </c>
       <c r="D22" s="0">
         <v>37.161051181579495</v>
@@ -1268,7 +1268,7 @@
         <v>159</v>
       </c>
       <c r="C23" s="0">
-        <v>8.8734503042086921</v>
+        <v>8.8728963524472473</v>
       </c>
       <c r="D23" s="0">
         <v>31.373686051202036</v>
@@ -1285,7 +1285,7 @@
         <v>160</v>
       </c>
       <c r="C24" s="0">
-        <v>4.125038312286379</v>
+        <v>4.1243272442589394</v>
       </c>
       <c r="D24" s="0">
         <v>28.303086614794616</v>
@@ -1302,7 +1302,7 @@
         <v>161</v>
       </c>
       <c r="C25" s="0">
-        <v>1.2206703311181963</v>
+        <v>1.2195213445997153</v>
       </c>
       <c r="D25" s="0">
         <v>28.112551325684741</v>
@@ -1319,7 +1319,7 @@
         <v>162</v>
       </c>
       <c r="C26" s="0">
-        <v>1.2402820414334734</v>
+        <v>1.2391889237883735</v>
       </c>
       <c r="D26" s="0">
         <v>28.799651839799076</v>
@@ -1336,7 +1336,7 @@
         <v>163</v>
       </c>
       <c r="C27" s="0">
-        <v>2.7529712211931043</v>
+        <v>2.7514377091152435</v>
       </c>
       <c r="D27" s="0">
         <v>27.143842151874559</v>
@@ -1353,7 +1353,7 @@
         <v>164</v>
       </c>
       <c r="C28" s="0">
-        <v>2.3813862973120319</v>
+        <v>2.380374942256283</v>
       </c>
       <c r="D28" s="0">
         <v>28.422548836037631</v>
@@ -1370,7 +1370,7 @@
         <v>165</v>
       </c>
       <c r="C29" s="0">
-        <v>3.6376501034478217</v>
+        <v>3.6368608427225175</v>
       </c>
       <c r="D29" s="0">
         <v>28.685726527608523</v>
@@ -1387,7 +1387,7 @@
         <v>166</v>
       </c>
       <c r="C30" s="0">
-        <v>3.6016517973044602</v>
+        <v>3.6006082872946128</v>
       </c>
       <c r="D30" s="0">
         <v>30.47104250685177</v>
@@ -1404,7 +1404,7 @@
         <v>167</v>
       </c>
       <c r="C31" s="0">
-        <v>-0.44984398005564441</v>
+        <v>-0.4513537962298067</v>
       </c>
       <c r="D31" s="0">
         <v>25.588110310369032</v>
@@ -1421,7 +1421,7 @@
         <v>168</v>
       </c>
       <c r="C32" s="0">
-        <v>9.096646837825773</v>
+        <v>9.0961195430637467</v>
       </c>
       <c r="D32" s="0">
         <v>33.507446960175727</v>
@@ -1472,7 +1472,7 @@
         <v>154</v>
       </c>
       <c r="C35" s="0">
-        <v>-1.5926048073201189</v>
+        <v>-1.5957411547692157</v>
       </c>
       <c r="D35" s="0">
         <v>29.180767440905989</v>
@@ -1489,7 +1489,7 @@
         <v>155</v>
       </c>
       <c r="C36" s="0">
-        <v>9.1571074433630422</v>
+        <v>9.1565608679626749</v>
       </c>
       <c r="D36" s="0">
         <v>35.983306207813605</v>
@@ -1506,7 +1506,7 @@
         <v>156</v>
       </c>
       <c r="C37" s="0">
-        <v>2.1626035247595334</v>
+        <v>2.1619352270960541</v>
       </c>
       <c r="D37" s="0">
         <v>30.246752839600891</v>
@@ -1523,7 +1523,7 @@
         <v>157</v>
       </c>
       <c r="C38" s="0">
-        <v>1.2062356614536722</v>
+        <v>1.2052796157292911</v>
       </c>
       <c r="D38" s="0">
         <v>30.723061968896314</v>
@@ -1540,7 +1540,7 @@
         <v>158</v>
       </c>
       <c r="C39" s="0">
-        <v>11.161044860925244</v>
+        <v>11.16077622124566</v>
       </c>
       <c r="D39" s="0">
         <v>36.754950351005888</v>
@@ -1557,7 +1557,7 @@
         <v>159</v>
       </c>
       <c r="C40" s="0">
-        <v>7.2278431260310381</v>
+        <v>7.2272882398913403</v>
       </c>
       <c r="D40" s="0">
         <v>32.289450850527203</v>
@@ -1574,7 +1574,7 @@
         <v>160</v>
       </c>
       <c r="C41" s="0">
-        <v>3.8533738626214964</v>
+        <v>3.8523866902305581</v>
       </c>
       <c r="D41" s="0">
         <v>28.989725469274703</v>
@@ -1591,7 +1591,7 @@
         <v>161</v>
       </c>
       <c r="C42" s="0">
-        <v>-0.94955164839514761</v>
+        <v>-0.95106015966259583</v>
       </c>
       <c r="D42" s="0">
         <v>31.135843611293215</v>
@@ -1608,7 +1608,7 @@
         <v>162</v>
       </c>
       <c r="C43" s="0">
-        <v>-1.1563118252655979</v>
+        <v>-1.1588128016328612</v>
       </c>
       <c r="D43" s="0">
         <v>29.733213099256027</v>
@@ -1625,7 +1625,7 @@
         <v>163</v>
       </c>
       <c r="C44" s="0">
-        <v>-2.6761030707810045</v>
+        <v>-2.6782495244015707</v>
       </c>
       <c r="D44" s="0">
         <v>29.40152238361452</v>
@@ -1642,7 +1642,7 @@
         <v>164</v>
       </c>
       <c r="C45" s="0">
-        <v>2.0866430241310368</v>
+        <v>2.084921883090431</v>
       </c>
       <c r="D45" s="0">
         <v>33.262782811246495</v>
@@ -1659,7 +1659,7 @@
         <v>165</v>
       </c>
       <c r="C46" s="0">
-        <v>2.0745183813364627</v>
+        <v>2.0731892502863989</v>
       </c>
       <c r="D46" s="0">
         <v>32.130654580428114</v>
@@ -1676,7 +1676,7 @@
         <v>166</v>
       </c>
       <c r="C47" s="0">
-        <v>1.7193816869598424</v>
+        <v>1.7180383144824161</v>
       </c>
       <c r="D47" s="0">
         <v>31.742837456040224</v>
@@ -1693,7 +1693,7 @@
         <v>167</v>
       </c>
       <c r="C48" s="0">
-        <v>-4.6349061272180805</v>
+        <v>-4.636877042013329</v>
       </c>
       <c r="D48" s="0">
         <v>27.265342283573272</v>
@@ -1710,7 +1710,7 @@
         <v>168</v>
       </c>
       <c r="C49" s="0">
-        <v>6.1565345923152393</v>
+        <v>6.155871048860913</v>
       </c>
       <c r="D49" s="0">
         <v>37.519516261631438</v>
@@ -1795,7 +1795,7 @@
         <v>154</v>
       </c>
       <c r="C54" s="0">
-        <v>1.1448771997014218</v>
+        <v>1.1433748430104571</v>
       </c>
       <c r="D54" s="0">
         <v>30.362582137792614</v>
@@ -1812,7 +1812,7 @@
         <v>155</v>
       </c>
       <c r="C55" s="0">
-        <v>7.2625474906870027</v>
+        <v>7.2621330781073841</v>
       </c>
       <c r="D55" s="0">
         <v>34.990640809950392</v>
@@ -1829,7 +1829,7 @@
         <v>156</v>
       </c>
       <c r="C56" s="0">
-        <v>4.2377042580507958</v>
+        <v>4.2370656664359929</v>
       </c>
       <c r="D56" s="0">
         <v>31.028341501552422</v>
@@ -1846,7 +1846,7 @@
         <v>157</v>
       </c>
       <c r="C57" s="0">
-        <v>0.31262069977909013</v>
+        <v>0.31170977889629076</v>
       </c>
       <c r="D57" s="0">
         <v>28.621352082007991</v>
@@ -1863,7 +1863,7 @@
         <v>158</v>
       </c>
       <c r="C58" s="0">
-        <v>12.453075544294133</v>
+        <v>12.452829147632013</v>
       </c>
       <c r="D58" s="0">
         <v>37.739441940276457</v>
@@ -1880,7 +1880,7 @@
         <v>159</v>
       </c>
       <c r="C59" s="0">
-        <v>5.4330375810589802</v>
+        <v>5.4326021844997641</v>
       </c>
       <c r="D59" s="0">
         <v>33.038893219919878</v>
@@ -1897,7 +1897,7 @@
         <v>160</v>
       </c>
       <c r="C60" s="0">
-        <v>1.1561028148207497</v>
+        <v>1.1551497370397543</v>
       </c>
       <c r="D60" s="0">
         <v>29.181151606017607</v>
@@ -1914,7 +1914,7 @@
         <v>161</v>
       </c>
       <c r="C61" s="0">
-        <v>2.1954392343882963</v>
+        <v>2.19392478966207</v>
       </c>
       <c r="D61" s="0">
         <v>29.931413852667337</v>
@@ -1931,7 +1931,7 @@
         <v>162</v>
       </c>
       <c r="C62" s="0">
-        <v>1.3654868179444437</v>
+        <v>1.3637470184296876</v>
       </c>
       <c r="D62" s="0">
         <v>29.873696574957446</v>
@@ -1948,7 +1948,7 @@
         <v>163</v>
       </c>
       <c r="C63" s="0">
-        <v>-4.3490083019396888</v>
+        <v>-4.3516842699267189</v>
       </c>
       <c r="D63" s="0">
         <v>28.582436101440827</v>
@@ -1965,7 +1965,7 @@
         <v>164</v>
       </c>
       <c r="C64" s="0">
-        <v>4.0970141097864552</v>
+        <v>4.0961810334215034</v>
       </c>
       <c r="D64" s="0">
         <v>32.814707484732772</v>
@@ -1982,7 +1982,7 @@
         <v>165</v>
       </c>
       <c r="C65" s="0">
-        <v>2.5721513829474607</v>
+        <v>2.5707522286849667</v>
       </c>
       <c r="D65" s="0">
         <v>30.953753930836797</v>
@@ -1999,7 +1999,7 @@
         <v>166</v>
       </c>
       <c r="C66" s="0">
-        <v>0.07271415398842615</v>
+        <v>0.071123349759035448</v>
       </c>
       <c r="D66" s="0">
         <v>32.006657448948715</v>
@@ -2016,7 +2016,7 @@
         <v>167</v>
       </c>
       <c r="C67" s="0">
-        <v>0.28823128981657981</v>
+        <v>0.28637872154327226</v>
       </c>
       <c r="D67" s="0">
         <v>30.043194416070705</v>
@@ -2033,7 +2033,7 @@
         <v>168</v>
       </c>
       <c r="C68" s="0">
-        <v>9.8968219824114971</v>
+        <v>9.8964034180586573</v>
       </c>
       <c r="D68" s="0">
         <v>38.025127653679782</v>

--- a/processed/Summary.xlsx
+++ b/processed/Summary.xlsx
@@ -13,7 +13,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" count="4176" uniqueCount="266">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" count="4388" uniqueCount="266">
   <si>
     <t>Variante</t>
   </si>
@@ -911,7 +911,7 @@
         <v>154</v>
       </c>
       <c r="C2" s="0">
-        <v>-1.6311487155457698</v>
+        <v>-1.6284588757213758</v>
       </c>
       <c r="D2" s="0">
         <v>29.081982299812765</v>
@@ -928,7 +928,7 @@
         <v>155</v>
       </c>
       <c r="C3" s="0">
-        <v>7.7289613976235874</v>
+        <v>7.7294639185805094</v>
       </c>
       <c r="D3" s="0">
         <v>36.848834499984847</v>
@@ -945,7 +945,7 @@
         <v>156</v>
       </c>
       <c r="C4" s="0">
-        <v>1.0171527473771649</v>
+        <v>1.0181516778011752</v>
       </c>
       <c r="D4" s="0">
         <v>31.825511447688712</v>
@@ -962,7 +962,7 @@
         <v>157</v>
       </c>
       <c r="C5" s="0">
-        <v>-3.2582132929017158</v>
+        <v>-3.2570716042630545</v>
       </c>
       <c r="D5" s="0">
         <v>26.716473878512392</v>
@@ -979,7 +979,7 @@
         <v>158</v>
       </c>
       <c r="C6" s="0">
-        <v>12.124702124345212</v>
+        <v>12.124976719482525</v>
       </c>
       <c r="D6" s="0">
         <v>39.013342086234999</v>
@@ -996,7 +996,7 @@
         <v>159</v>
       </c>
       <c r="C7" s="0">
-        <v>6.7173384244219259</v>
+        <v>6.7178730448699806</v>
       </c>
       <c r="D7" s="0">
         <v>33.335887048974023</v>
@@ -1013,7 +1013,7 @@
         <v>160</v>
       </c>
       <c r="C8" s="0">
-        <v>1.1984459838551056</v>
+        <v>1.2000368190287229</v>
       </c>
       <c r="D8" s="0">
         <v>27.023676017181707</v>
@@ -1030,7 +1030,7 @@
         <v>161</v>
       </c>
       <c r="C9" s="0">
-        <v>1.3362167414216035</v>
+        <v>1.3377568132140803</v>
       </c>
       <c r="D9" s="0">
         <v>30.764214575512515</v>
@@ -1047,7 +1047,7 @@
         <v>162</v>
       </c>
       <c r="C10" s="0">
-        <v>0.86143284335635384</v>
+        <v>0.86349140891521037</v>
       </c>
       <c r="D10" s="0">
         <v>29.344443542008083</v>
@@ -1064,7 +1064,7 @@
         <v>163</v>
       </c>
       <c r="C11" s="0">
-        <v>-2.6426581070624349</v>
+        <v>-2.6404856851369907</v>
       </c>
       <c r="D11" s="0">
         <v>27.4259629863245</v>
@@ -1081,7 +1081,7 @@
         <v>164</v>
       </c>
       <c r="C12" s="0">
-        <v>1.9450925991110013</v>
+        <v>1.9465579190914859</v>
       </c>
       <c r="D12" s="0">
         <v>31.119231442129145</v>
@@ -1098,7 +1098,7 @@
         <v>165</v>
       </c>
       <c r="C13" s="0">
-        <v>2.0128029537280083</v>
+        <v>2.0145305627847616</v>
       </c>
       <c r="D13" s="0">
         <v>33.127048289489856</v>
@@ -1115,7 +1115,7 @@
         <v>166</v>
       </c>
       <c r="C14" s="0">
-        <v>2.1458938521189759</v>
+        <v>2.1472934785785815</v>
       </c>
       <c r="D14" s="0">
         <v>31.492770846383067</v>
@@ -1132,7 +1132,7 @@
         <v>167</v>
       </c>
       <c r="C15" s="0">
-        <v>-4.3479132289228879</v>
+        <v>-4.345516737669163</v>
       </c>
       <c r="D15" s="0">
         <v>26.81496104912253</v>
@@ -1149,7 +1149,7 @@
         <v>168</v>
       </c>
       <c r="C16" s="0">
-        <v>6.9686221846149223</v>
+        <v>6.969507487618535</v>
       </c>
       <c r="D16" s="0">
         <v>37.185915717318778</v>
@@ -1183,7 +1183,7 @@
         <v>154</v>
       </c>
       <c r="C18" s="0">
-        <v>1.775389540017569</v>
+        <v>1.7769958795725602</v>
       </c>
       <c r="D18" s="0">
         <v>27.942997423858319</v>
@@ -1200,7 +1200,7 @@
         <v>155</v>
       </c>
       <c r="C19" s="0">
-        <v>7.9798839640489376</v>
+        <v>7.9804072578967578</v>
       </c>
       <c r="D19" s="0">
         <v>35.141421394255779</v>
@@ -1217,7 +1217,7 @@
         <v>156</v>
       </c>
       <c r="C20" s="0">
-        <v>2.964132652973539</v>
+        <v>2.9651858558577842</v>
       </c>
       <c r="D20" s="0">
         <v>28.729776453826069</v>
@@ -1234,7 +1234,7 @@
         <v>157</v>
       </c>
       <c r="C21" s="0">
-        <v>-0.2619307679007416</v>
+        <v>-0.26085353817997697</v>
       </c>
       <c r="D21" s="0">
         <v>24.898844069518994</v>
@@ -1251,7 +1251,7 @@
         <v>158</v>
       </c>
       <c r="C22" s="0">
-        <v>12.681062233137583</v>
+        <v>12.681333784819364</v>
       </c>
       <c r="D22" s="0">
         <v>37.161051181579495</v>
@@ -1268,7 +1268,7 @@
         <v>159</v>
       </c>
       <c r="C23" s="0">
-        <v>8.8728963524472473</v>
+        <v>8.8734503042086921</v>
       </c>
       <c r="D23" s="0">
         <v>31.373686051202036</v>
@@ -1285,7 +1285,7 @@
         <v>160</v>
       </c>
       <c r="C24" s="0">
-        <v>4.1243272442589394</v>
+        <v>4.125038312286379</v>
       </c>
       <c r="D24" s="0">
         <v>28.303086614794616</v>
@@ -1302,7 +1302,7 @@
         <v>161</v>
       </c>
       <c r="C25" s="0">
-        <v>1.2195213445997153</v>
+        <v>1.2206703311181963</v>
       </c>
       <c r="D25" s="0">
         <v>28.112551325684741</v>
@@ -1319,7 +1319,7 @@
         <v>162</v>
       </c>
       <c r="C26" s="0">
-        <v>1.2391889237883735</v>
+        <v>1.2402820414334734</v>
       </c>
       <c r="D26" s="0">
         <v>28.799651839799076</v>
@@ -1336,7 +1336,7 @@
         <v>163</v>
       </c>
       <c r="C27" s="0">
-        <v>2.7514377091152435</v>
+        <v>2.7529712211931043</v>
       </c>
       <c r="D27" s="0">
         <v>27.143842151874559</v>
@@ -1353,7 +1353,7 @@
         <v>164</v>
       </c>
       <c r="C28" s="0">
-        <v>2.380374942256283</v>
+        <v>2.3813862973120319</v>
       </c>
       <c r="D28" s="0">
         <v>28.422548836037631</v>
@@ -1370,7 +1370,7 @@
         <v>165</v>
       </c>
       <c r="C29" s="0">
-        <v>3.6368608427225175</v>
+        <v>3.6376501034478217</v>
       </c>
       <c r="D29" s="0">
         <v>28.685726527608523</v>
@@ -1387,7 +1387,7 @@
         <v>166</v>
       </c>
       <c r="C30" s="0">
-        <v>3.6006082872946128</v>
+        <v>3.6016517973044602</v>
       </c>
       <c r="D30" s="0">
         <v>30.47104250685177</v>
@@ -1404,7 +1404,7 @@
         <v>167</v>
       </c>
       <c r="C31" s="0">
-        <v>-0.4513537962298067</v>
+        <v>-0.44984398005564441</v>
       </c>
       <c r="D31" s="0">
         <v>25.588110310369032</v>
@@ -1421,7 +1421,7 @@
         <v>168</v>
       </c>
       <c r="C32" s="0">
-        <v>9.0961195430637467</v>
+        <v>9.096646837825773</v>
       </c>
       <c r="D32" s="0">
         <v>33.507446960175727</v>
@@ -1472,7 +1472,7 @@
         <v>154</v>
       </c>
       <c r="C35" s="0">
-        <v>-1.5957411547692157</v>
+        <v>-1.5926048073201189</v>
       </c>
       <c r="D35" s="0">
         <v>29.180767440905989</v>
@@ -1489,7 +1489,7 @@
         <v>155</v>
       </c>
       <c r="C36" s="0">
-        <v>9.1565608679626749</v>
+        <v>9.1571074433630422</v>
       </c>
       <c r="D36" s="0">
         <v>35.983306207813605</v>
@@ -1506,7 +1506,7 @@
         <v>156</v>
       </c>
       <c r="C37" s="0">
-        <v>2.1619352270960541</v>
+        <v>2.1626035247595334</v>
       </c>
       <c r="D37" s="0">
         <v>30.246752839600891</v>
@@ -1523,7 +1523,7 @@
         <v>157</v>
       </c>
       <c r="C38" s="0">
-        <v>1.2052796157292911</v>
+        <v>1.2062356614536722</v>
       </c>
       <c r="D38" s="0">
         <v>30.723061968896314</v>
@@ -1540,7 +1540,7 @@
         <v>158</v>
       </c>
       <c r="C39" s="0">
-        <v>11.16077622124566</v>
+        <v>11.161044860925244</v>
       </c>
       <c r="D39" s="0">
         <v>36.754950351005888</v>
@@ -1557,7 +1557,7 @@
         <v>159</v>
       </c>
       <c r="C40" s="0">
-        <v>7.2272882398913403</v>
+        <v>7.2278431260310381</v>
       </c>
       <c r="D40" s="0">
         <v>32.289450850527203</v>
@@ -1574,7 +1574,7 @@
         <v>160</v>
       </c>
       <c r="C41" s="0">
-        <v>3.8523866902305581</v>
+        <v>3.8533738626214964</v>
       </c>
       <c r="D41" s="0">
         <v>28.989725469274703</v>
@@ -1591,7 +1591,7 @@
         <v>161</v>
       </c>
       <c r="C42" s="0">
-        <v>-0.95106015966259583</v>
+        <v>-0.94955164839514761</v>
       </c>
       <c r="D42" s="0">
         <v>31.135843611293215</v>
@@ -1608,7 +1608,7 @@
         <v>162</v>
       </c>
       <c r="C43" s="0">
-        <v>-1.1588128016328612</v>
+        <v>-1.1563118252655979</v>
       </c>
       <c r="D43" s="0">
         <v>29.733213099256027</v>
@@ -1625,7 +1625,7 @@
         <v>163</v>
       </c>
       <c r="C44" s="0">
-        <v>-2.6782495244015707</v>
+        <v>-2.6761030707810045</v>
       </c>
       <c r="D44" s="0">
         <v>29.40152238361452</v>
@@ -1642,7 +1642,7 @@
         <v>164</v>
       </c>
       <c r="C45" s="0">
-        <v>2.084921883090431</v>
+        <v>2.0866430241310368</v>
       </c>
       <c r="D45" s="0">
         <v>33.262782811246495</v>
@@ -1659,7 +1659,7 @@
         <v>165</v>
       </c>
       <c r="C46" s="0">
-        <v>2.0731892502863989</v>
+        <v>2.0745183813364627</v>
       </c>
       <c r="D46" s="0">
         <v>32.130654580428114</v>
@@ -1676,7 +1676,7 @@
         <v>166</v>
       </c>
       <c r="C47" s="0">
-        <v>1.7180383144824161</v>
+        <v>1.7193816869598424</v>
       </c>
       <c r="D47" s="0">
         <v>31.742837456040224</v>
@@ -1693,7 +1693,7 @@
         <v>167</v>
       </c>
       <c r="C48" s="0">
-        <v>-4.636877042013329</v>
+        <v>-4.6349061272180805</v>
       </c>
       <c r="D48" s="0">
         <v>27.265342283573272</v>
@@ -1710,7 +1710,7 @@
         <v>168</v>
       </c>
       <c r="C49" s="0">
-        <v>6.155871048860913</v>
+        <v>6.1565345923152393</v>
       </c>
       <c r="D49" s="0">
         <v>37.519516261631438</v>
@@ -1795,7 +1795,7 @@
         <v>154</v>
       </c>
       <c r="C54" s="0">
-        <v>1.1433748430104571</v>
+        <v>1.1448771997014218</v>
       </c>
       <c r="D54" s="0">
         <v>30.362582137792614</v>
@@ -1812,7 +1812,7 @@
         <v>155</v>
       </c>
       <c r="C55" s="0">
-        <v>7.2621330781073841</v>
+        <v>7.2625474906870027</v>
       </c>
       <c r="D55" s="0">
         <v>34.990640809950392</v>
@@ -1829,7 +1829,7 @@
         <v>156</v>
       </c>
       <c r="C56" s="0">
-        <v>4.2370656664359929</v>
+        <v>4.2377042580507958</v>
       </c>
       <c r="D56" s="0">
         <v>31.028341501552422</v>
@@ -1846,7 +1846,7 @@
         <v>157</v>
       </c>
       <c r="C57" s="0">
-        <v>0.31170977889629076</v>
+        <v>0.31262069977909013</v>
       </c>
       <c r="D57" s="0">
         <v>28.621352082007991</v>
@@ -1863,7 +1863,7 @@
         <v>158</v>
       </c>
       <c r="C58" s="0">
-        <v>12.452829147632013</v>
+        <v>12.453075544294133</v>
       </c>
       <c r="D58" s="0">
         <v>37.739441940276457</v>
@@ -1880,7 +1880,7 @@
         <v>159</v>
       </c>
       <c r="C59" s="0">
-        <v>5.4326021844997641</v>
+        <v>5.4330375810589802</v>
       </c>
       <c r="D59" s="0">
         <v>33.038893219919878</v>
@@ -1897,7 +1897,7 @@
         <v>160</v>
       </c>
       <c r="C60" s="0">
-        <v>1.1551497370397543</v>
+        <v>1.1561028148207497</v>
       </c>
       <c r="D60" s="0">
         <v>29.181151606017607</v>
@@ -1914,7 +1914,7 @@
         <v>161</v>
       </c>
       <c r="C61" s="0">
-        <v>2.19392478966207</v>
+        <v>2.1954392343882963</v>
       </c>
       <c r="D61" s="0">
         <v>29.931413852667337</v>
@@ -1931,7 +1931,7 @@
         <v>162</v>
       </c>
       <c r="C62" s="0">
-        <v>1.3637470184296876</v>
+        <v>1.3654868179444437</v>
       </c>
       <c r="D62" s="0">
         <v>29.873696574957446</v>
@@ -1948,7 +1948,7 @@
         <v>163</v>
       </c>
       <c r="C63" s="0">
-        <v>-4.3516842699267189</v>
+        <v>-4.3490083019396888</v>
       </c>
       <c r="D63" s="0">
         <v>28.582436101440827</v>
@@ -1965,7 +1965,7 @@
         <v>164</v>
       </c>
       <c r="C64" s="0">
-        <v>4.0961810334215034</v>
+        <v>4.0970141097864552</v>
       </c>
       <c r="D64" s="0">
         <v>32.814707484732772</v>
@@ -1982,7 +1982,7 @@
         <v>165</v>
       </c>
       <c r="C65" s="0">
-        <v>2.5707522286849667</v>
+        <v>2.5721513829474607</v>
       </c>
       <c r="D65" s="0">
         <v>30.953753930836797</v>
@@ -1999,7 +1999,7 @@
         <v>166</v>
       </c>
       <c r="C66" s="0">
-        <v>0.071123349759035448</v>
+        <v>0.07271415398842615</v>
       </c>
       <c r="D66" s="0">
         <v>32.006657448948715</v>
@@ -2016,7 +2016,7 @@
         <v>167</v>
       </c>
       <c r="C67" s="0">
-        <v>0.28637872154327226</v>
+        <v>0.28823128981657981</v>
       </c>
       <c r="D67" s="0">
         <v>30.043194416070705</v>
@@ -2033,7 +2033,7 @@
         <v>168</v>
       </c>
       <c r="C68" s="0">
-        <v>9.8964034180586573</v>
+        <v>9.8968219824114971</v>
       </c>
       <c r="D68" s="0">
         <v>38.025127653679782</v>

--- a/processed/Summary.xlsx
+++ b/processed/Summary.xlsx
@@ -13,7 +13,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" count="4388" uniqueCount="266">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" count="6296" uniqueCount="266">
   <si>
     <t>Variante</t>
   </si>
@@ -881,7 +881,7 @@
   <cols>
     <col min="1" max="1" width="10.7109375" customWidth="true"/>
     <col min="2" max="2" width="8.42578125" customWidth="true"/>
-    <col min="3" max="3" width="13.7109375" customWidth="true"/>
+    <col min="3" max="3" width="15.42578125" customWidth="true"/>
     <col min="4" max="4" width="11.7109375" customWidth="true"/>
     <col min="5" max="5" width="27.7109375" customWidth="true"/>
   </cols>
@@ -911,10 +911,10 @@
         <v>154</v>
       </c>
       <c r="C2" s="0">
-        <v>-1.6284588757213758</v>
+        <v>-1.5123981985905175</v>
       </c>
       <c r="D2" s="0">
-        <v>29.081982299812765</v>
+        <v>29.193503171723478</v>
       </c>
       <c r="E2" s="0" t="s">
         <v>173</v>
@@ -928,10 +928,10 @@
         <v>155</v>
       </c>
       <c r="C3" s="0">
-        <v>7.7294639185805094</v>
+        <v>7.2769296466358124</v>
       </c>
       <c r="D3" s="0">
-        <v>36.848834499984847</v>
+        <v>36.399503921535114</v>
       </c>
       <c r="E3" s="0" t="s">
         <v>174</v>
@@ -945,10 +945,10 @@
         <v>156</v>
       </c>
       <c r="C4" s="0">
-        <v>1.0181516778011752</v>
+        <v>-0.00073150732900427668</v>
       </c>
       <c r="D4" s="0">
-        <v>31.825511447688712</v>
+        <v>30.82209754006016</v>
       </c>
       <c r="E4" s="0" t="s">
         <v>175</v>
@@ -962,10 +962,10 @@
         <v>157</v>
       </c>
       <c r="C5" s="0">
-        <v>-3.2570716042630545</v>
+        <v>-4.1529989223016885</v>
       </c>
       <c r="D5" s="0">
-        <v>26.716473878512392</v>
+        <v>25.856605390682116</v>
       </c>
       <c r="E5" s="0" t="s">
         <v>176</v>
@@ -979,10 +979,10 @@
         <v>158</v>
       </c>
       <c r="C6" s="0">
-        <v>12.124976719482525</v>
+        <v>11.430447713759369</v>
       </c>
       <c r="D6" s="0">
-        <v>39.013342086234999</v>
+        <v>41.321178443697775</v>
       </c>
       <c r="E6" s="0" t="s">
         <v>177</v>
@@ -996,10 +996,10 @@
         <v>159</v>
       </c>
       <c r="C7" s="0">
-        <v>6.7178730448699806</v>
+        <v>5.5900971532230042</v>
       </c>
       <c r="D7" s="0">
-        <v>33.335887048974023</v>
+        <v>35.207592429549699</v>
       </c>
       <c r="E7" s="0" t="s">
         <v>178</v>
@@ -1013,10 +1013,10 @@
         <v>160</v>
       </c>
       <c r="C8" s="0">
-        <v>1.2000368190287229</v>
+        <v>0.85013838084635851</v>
       </c>
       <c r="D8" s="0">
-        <v>27.023676017181707</v>
+        <v>29.584826287018583</v>
       </c>
       <c r="E8" s="0" t="s">
         <v>179</v>
@@ -1030,10 +1030,10 @@
         <v>161</v>
       </c>
       <c r="C9" s="0">
-        <v>1.3377568132140803</v>
+        <v>-1.2270887697506179</v>
       </c>
       <c r="D9" s="0">
-        <v>30.764214575512515</v>
+        <v>28.204514152463212</v>
       </c>
       <c r="E9" s="0" t="s">
         <v>180</v>
@@ -1047,10 +1047,10 @@
         <v>162</v>
       </c>
       <c r="C10" s="0">
-        <v>0.86349140891521037</v>
+        <v>-1.8571382352471897</v>
       </c>
       <c r="D10" s="0">
-        <v>29.344443542008083</v>
+        <v>26.645821684081032</v>
       </c>
       <c r="E10" s="0" t="s">
         <v>181</v>
@@ -1064,10 +1064,10 @@
         <v>163</v>
       </c>
       <c r="C11" s="0">
-        <v>-2.6404856851369907</v>
+        <v>-2.8942786055175733</v>
       </c>
       <c r="D11" s="0">
-        <v>27.4259629863245</v>
+        <v>27.173173493828024</v>
       </c>
       <c r="E11" s="0" t="s">
         <v>182</v>
@@ -1081,10 +1081,10 @@
         <v>164</v>
       </c>
       <c r="C12" s="0">
-        <v>1.9465579190914859</v>
+        <v>1.5528716091300518</v>
       </c>
       <c r="D12" s="0">
-        <v>31.119231442129145</v>
+        <v>30.727952099167926</v>
       </c>
       <c r="E12" s="0" t="s">
         <v>183</v>
@@ -1098,10 +1098,10 @@
         <v>165</v>
       </c>
       <c r="C13" s="0">
-        <v>2.0145305627847616</v>
+        <v>1.6182473027135313</v>
       </c>
       <c r="D13" s="0">
-        <v>33.127048289489856</v>
+        <v>32.731877740483967</v>
       </c>
       <c r="E13" s="0" t="s">
         <v>184</v>
@@ -1115,10 +1115,10 @@
         <v>166</v>
       </c>
       <c r="C14" s="0">
-        <v>2.1472934785785815</v>
+        <v>1.7651871792486964</v>
       </c>
       <c r="D14" s="0">
-        <v>31.492770846383067</v>
+        <v>31.111359717291425</v>
       </c>
       <c r="E14" s="0" t="s">
         <v>185</v>
@@ -1132,10 +1132,10 @@
         <v>167</v>
       </c>
       <c r="C15" s="0">
-        <v>-4.345516737669163</v>
+        <v>-4.5714798526237841</v>
       </c>
       <c r="D15" s="0">
-        <v>26.81496104912253</v>
+        <v>26.575750344394461</v>
       </c>
       <c r="E15" s="0" t="s">
         <v>186</v>
@@ -1149,10 +1149,10 @@
         <v>168</v>
       </c>
       <c r="C16" s="0">
-        <v>6.969507487618535</v>
+        <v>6.559273452859312</v>
       </c>
       <c r="D16" s="0">
-        <v>37.185915717318778</v>
+        <v>36.778059334151195</v>
       </c>
       <c r="E16" s="0" t="s">
         <v>187</v>
@@ -1166,10 +1166,10 @@
         <v>169</v>
       </c>
       <c r="C17" s="0">
-        <v>-2.165127454279848</v>
+        <v>-2.2339438385611912</v>
       </c>
       <c r="D17" s="0">
-        <v>27.719011732925701</v>
+        <v>27.653330819691554</v>
       </c>
       <c r="E17" s="0" t="s">
         <v>188</v>
@@ -1183,10 +1183,10 @@
         <v>154</v>
       </c>
       <c r="C18" s="0">
-        <v>1.7769958795725602</v>
+        <v>-0.22910080615834821</v>
       </c>
       <c r="D18" s="0">
-        <v>27.942997423858319</v>
+        <v>28.896325333654943</v>
       </c>
       <c r="E18" s="0" t="s">
         <v>26</v>
@@ -1200,10 +1200,10 @@
         <v>155</v>
       </c>
       <c r="C19" s="0">
-        <v>7.9804072578967578</v>
+        <v>8.1526819147105059</v>
       </c>
       <c r="D19" s="0">
-        <v>35.141421394255779</v>
+        <v>38.303878292256179</v>
       </c>
       <c r="E19" s="0" t="s">
         <v>35</v>
@@ -1217,10 +1217,10 @@
         <v>156</v>
       </c>
       <c r="C20" s="0">
-        <v>2.9651858558577842</v>
+        <v>2.9971001578279486</v>
       </c>
       <c r="D20" s="0">
-        <v>28.729776453826069</v>
+        <v>31.730319754516639</v>
       </c>
       <c r="E20" s="0" t="s">
         <v>36</v>
@@ -1234,10 +1234,10 @@
         <v>157</v>
       </c>
       <c r="C21" s="0">
-        <v>-0.26085353817997697</v>
+        <v>-0.71178535398213816</v>
       </c>
       <c r="D21" s="0">
-        <v>24.898844069518994</v>
+        <v>27.370891040424496</v>
       </c>
       <c r="E21" s="0" t="s">
         <v>37</v>
@@ -1251,10 +1251,10 @@
         <v>158</v>
       </c>
       <c r="C22" s="0">
-        <v>12.681333784819364</v>
+        <v>10.388069661839092</v>
       </c>
       <c r="D22" s="0">
-        <v>37.161051181579495</v>
+        <v>40.866007561169788</v>
       </c>
       <c r="E22" s="0" t="s">
         <v>38</v>
@@ -1268,10 +1268,10 @@
         <v>159</v>
       </c>
       <c r="C23" s="0">
-        <v>8.8734503042086921</v>
+        <v>6.3909709674163437</v>
       </c>
       <c r="D23" s="0">
-        <v>31.373686051202036</v>
+        <v>34.886089588670238</v>
       </c>
       <c r="E23" s="0" t="s">
         <v>39</v>
@@ -1285,10 +1285,10 @@
         <v>160</v>
       </c>
       <c r="C24" s="0">
-        <v>4.125038312286379</v>
+        <v>2.7232637933390831</v>
       </c>
       <c r="D24" s="0">
-        <v>28.303086614794616</v>
+        <v>32.84595312504748</v>
       </c>
       <c r="E24" s="0" t="s">
         <v>40</v>
@@ -1302,10 +1302,10 @@
         <v>161</v>
       </c>
       <c r="C25" s="0">
-        <v>1.2206703311181963</v>
+        <v>-0.68880274128372987</v>
       </c>
       <c r="D25" s="0">
-        <v>28.112551325684741</v>
+        <v>29.158483720395854</v>
       </c>
       <c r="E25" s="0" t="s">
         <v>27</v>
@@ -1319,10 +1319,10 @@
         <v>162</v>
       </c>
       <c r="C26" s="0">
-        <v>1.2402820414334734</v>
+        <v>-0.35453683524034174</v>
       </c>
       <c r="D26" s="0">
-        <v>28.799651839799076</v>
+        <v>30.163452737457</v>
       </c>
       <c r="E26" s="0" t="s">
         <v>28</v>
@@ -1336,10 +1336,10 @@
         <v>163</v>
       </c>
       <c r="C27" s="0">
-        <v>2.7529712211931043</v>
+        <v>-0.049599260015063922</v>
       </c>
       <c r="D27" s="0">
-        <v>27.143842151874559</v>
+        <v>30.258955317447132</v>
       </c>
       <c r="E27" s="0" t="s">
         <v>29</v>
@@ -1353,10 +1353,10 @@
         <v>164</v>
       </c>
       <c r="C28" s="0">
-        <v>2.3813862973120319</v>
+        <v>1.7525931426666039</v>
       </c>
       <c r="D28" s="0">
-        <v>28.422548836037631</v>
+        <v>30.753866271010804</v>
       </c>
       <c r="E28" s="0" t="s">
         <v>30</v>
@@ -1370,10 +1370,10 @@
         <v>165</v>
       </c>
       <c r="C29" s="0">
-        <v>3.6376501034478217</v>
+        <v>2.4925877181125222</v>
       </c>
       <c r="D29" s="0">
-        <v>28.685726527608523</v>
+        <v>30.541704631476613</v>
       </c>
       <c r="E29" s="0" t="s">
         <v>31</v>
@@ -1387,10 +1387,10 @@
         <v>166</v>
       </c>
       <c r="C30" s="0">
-        <v>3.6016517973044602</v>
+        <v>3.1645156035963344</v>
       </c>
       <c r="D30" s="0">
-        <v>30.47104250685177</v>
+        <v>33.014841921638805</v>
       </c>
       <c r="E30" s="0" t="s">
         <v>32</v>
@@ -1404,10 +1404,10 @@
         <v>167</v>
       </c>
       <c r="C31" s="0">
-        <v>-0.44984398005564441</v>
+        <v>-1.2361327475405139</v>
       </c>
       <c r="D31" s="0">
-        <v>25.588110310369032</v>
+        <v>27.742770393889327</v>
       </c>
       <c r="E31" s="0" t="s">
         <v>33</v>
@@ -1421,10 +1421,10 @@
         <v>168</v>
       </c>
       <c r="C32" s="0">
-        <v>9.096646837825773</v>
+        <v>6.9139121066934024</v>
       </c>
       <c r="D32" s="0">
-        <v>33.507446960175727</v>
+        <v>37.318879759023908</v>
       </c>
       <c r="E32" s="0" t="s">
         <v>34</v>
@@ -1438,10 +1438,10 @@
         <v>169</v>
       </c>
       <c r="C33" s="0">
-        <v>3.8596977287827023</v>
+        <v>1.0310076805203563</v>
       </c>
       <c r="D33" s="0">
-        <v>28.684783959220521</v>
+        <v>31.824072825445818</v>
       </c>
       <c r="E33" s="0" t="s">
         <v>189</v>
@@ -1455,10 +1455,10 @@
         <v>170</v>
       </c>
       <c r="C34" s="0">
-        <v>0.88236415583371919</v>
+        <v>-1.207471471046941</v>
       </c>
       <c r="D34" s="0">
-        <v>26.272804420315335</v>
+        <v>30.124451601927014</v>
       </c>
       <c r="E34" s="0" t="s">
         <v>190</v>
@@ -1472,10 +1472,10 @@
         <v>154</v>
       </c>
       <c r="C35" s="0">
-        <v>-1.5926048073201189</v>
+        <v>-3.3097069358789306</v>
       </c>
       <c r="D35" s="0">
-        <v>29.180767440905989</v>
+        <v>27.48162916777838</v>
       </c>
       <c r="E35" s="0" t="s">
         <v>41</v>
@@ -1489,10 +1489,10 @@
         <v>155</v>
       </c>
       <c r="C36" s="0">
-        <v>9.1571074433630422</v>
+        <v>6.8177705130457067</v>
       </c>
       <c r="D36" s="0">
-        <v>35.983306207813605</v>
+        <v>36.653420065613766</v>
       </c>
       <c r="E36" s="0" t="s">
         <v>50</v>
@@ -1506,10 +1506,10 @@
         <v>156</v>
       </c>
       <c r="C37" s="0">
-        <v>2.1626035247595334</v>
+        <v>-2.0763228915737435</v>
       </c>
       <c r="D37" s="0">
-        <v>30.246752839600891</v>
+        <v>28.936274478952093</v>
       </c>
       <c r="E37" s="0" t="s">
         <v>51</v>
@@ -1523,10 +1523,10 @@
         <v>157</v>
       </c>
       <c r="C38" s="0">
-        <v>1.2062356614536722</v>
+        <v>-2.0614187737683336</v>
       </c>
       <c r="D38" s="0">
-        <v>30.723061968896314</v>
+        <v>30.459938290007539</v>
       </c>
       <c r="E38" s="0" t="s">
         <v>52</v>
@@ -1540,10 +1540,10 @@
         <v>158</v>
       </c>
       <c r="C39" s="0">
-        <v>11.161044860925244</v>
+        <v>9.3290541989896152</v>
       </c>
       <c r="D39" s="0">
-        <v>36.754950351005888</v>
+        <v>40.924304826319187</v>
       </c>
       <c r="E39" s="0" t="s">
         <v>53</v>
@@ -1557,10 +1557,10 @@
         <v>159</v>
       </c>
       <c r="C40" s="0">
-        <v>7.2278431260310381</v>
+        <v>5.2148677225772664</v>
       </c>
       <c r="D40" s="0">
-        <v>32.289450850527203</v>
+        <v>36.249363943199555</v>
       </c>
       <c r="E40" s="0" t="s">
         <v>54</v>
@@ -1574,10 +1574,10 @@
         <v>160</v>
       </c>
       <c r="C41" s="0">
-        <v>3.8533738626214964</v>
+        <v>0.16777716770293327</v>
       </c>
       <c r="D41" s="0">
-        <v>28.989725469274703</v>
+        <v>31.358757709764092</v>
       </c>
       <c r="E41" s="0" t="s">
         <v>55</v>
@@ -1591,10 +1591,10 @@
         <v>161</v>
       </c>
       <c r="C42" s="0">
-        <v>-0.94955164839514761</v>
+        <v>-2.2495783385874875</v>
       </c>
       <c r="D42" s="0">
-        <v>31.135843611293215</v>
+        <v>29.845493632289792</v>
       </c>
       <c r="E42" s="0" t="s">
         <v>42</v>
@@ -1608,10 +1608,10 @@
         <v>162</v>
       </c>
       <c r="C43" s="0">
-        <v>-1.1563118252655979</v>
+        <v>-2.2651147920339292</v>
       </c>
       <c r="D43" s="0">
-        <v>29.733213099256027</v>
+        <v>28.630299001278058</v>
       </c>
       <c r="E43" s="0" t="s">
         <v>43</v>
@@ -1625,10 +1625,10 @@
         <v>163</v>
       </c>
       <c r="C44" s="0">
-        <v>-2.6761030707810045</v>
+        <v>-4.2462533838926024</v>
       </c>
       <c r="D44" s="0">
-        <v>29.40152238361452</v>
+        <v>27.855065219001162</v>
       </c>
       <c r="E44" s="0" t="s">
         <v>44</v>
@@ -1642,10 +1642,10 @@
         <v>164</v>
       </c>
       <c r="C45" s="0">
-        <v>2.0866430241310368</v>
+        <v>1.6331597770266384</v>
       </c>
       <c r="D45" s="0">
-        <v>33.262782811246495</v>
+        <v>32.811066281577006</v>
       </c>
       <c r="E45" s="0" t="s">
         <v>45</v>
@@ -1659,10 +1659,10 @@
         <v>165</v>
       </c>
       <c r="C46" s="0">
-        <v>2.0745183813364627</v>
+        <v>1.6716055370401675</v>
       </c>
       <c r="D46" s="0">
-        <v>32.130654580428114</v>
+        <v>31.729107052395506</v>
       </c>
       <c r="E46" s="0" t="s">
         <v>46</v>
@@ -1676,10 +1676,10 @@
         <v>166</v>
       </c>
       <c r="C47" s="0">
-        <v>1.7193816869598424</v>
+        <v>1.3331077824869104</v>
       </c>
       <c r="D47" s="0">
-        <v>31.742837456040224</v>
+        <v>31.358722150227916</v>
       </c>
       <c r="E47" s="0" t="s">
         <v>47</v>
@@ -1693,10 +1693,10 @@
         <v>167</v>
       </c>
       <c r="C48" s="0">
-        <v>-4.6349061272180805</v>
+        <v>-4.9530992663366273</v>
       </c>
       <c r="D48" s="0">
-        <v>27.265342283573272</v>
+        <v>26.95117443836828</v>
       </c>
       <c r="E48" s="0" t="s">
         <v>48</v>
@@ -1710,10 +1710,10 @@
         <v>168</v>
       </c>
       <c r="C49" s="0">
-        <v>6.1565345923152393</v>
+        <v>6.3571639253997789</v>
       </c>
       <c r="D49" s="0">
-        <v>37.519516261631438</v>
+        <v>37.720101065514086</v>
       </c>
       <c r="E49" s="0" t="s">
         <v>49</v>
@@ -1727,10 +1727,10 @@
         <v>169</v>
       </c>
       <c r="C50" s="0">
-        <v>-0.3711430873132055</v>
+        <v>-2.417200694032708</v>
       </c>
       <c r="D50" s="0">
-        <v>30.373106606002473</v>
+        <v>28.337632697299966</v>
       </c>
       <c r="E50" s="0" t="s">
         <v>191</v>
@@ -1744,10 +1744,10 @@
         <v>171</v>
       </c>
       <c r="C51" s="0">
-        <v>-3.9754611366782458</v>
+        <v>-5.3272906638374975</v>
       </c>
       <c r="D51" s="0">
-        <v>26.630961783739107</v>
+        <v>25.291071096805485</v>
       </c>
       <c r="E51" s="0" t="s">
         <v>192</v>
@@ -1761,10 +1761,10 @@
         <v>170</v>
       </c>
       <c r="C52" s="0">
-        <v>-5.875161053023243</v>
+        <v>-5.9281530217355325</v>
       </c>
       <c r="D52" s="0">
-        <v>24.974687650575639</v>
+        <v>24.92435650173244</v>
       </c>
       <c r="E52" s="0" t="s">
         <v>193</v>
@@ -1778,10 +1778,10 @@
         <v>172</v>
       </c>
       <c r="C53" s="0">
-        <v>-3.7573565773260964</v>
+        <v>-3.8353358119562668</v>
       </c>
       <c r="D53" s="0">
-        <v>27.702580141314481</v>
+        <v>27.625150632652019</v>
       </c>
       <c r="E53" s="0" t="s">
         <v>194</v>
@@ -1795,10 +1795,10 @@
         <v>154</v>
       </c>
       <c r="C54" s="0">
-        <v>1.1448771997014218</v>
+        <v>-0.38323158856091333</v>
       </c>
       <c r="D54" s="0">
-        <v>30.362582137792614</v>
+        <v>31.826786033715067</v>
       </c>
       <c r="E54" s="0" t="s">
         <v>56</v>
@@ -1812,10 +1812,10 @@
         <v>155</v>
       </c>
       <c r="C55" s="0">
-        <v>7.2625474906870027</v>
+        <v>4.9289504095071735</v>
       </c>
       <c r="D55" s="0">
-        <v>34.990640809950392</v>
+        <v>35.665481848706165</v>
       </c>
       <c r="E55" s="0" t="s">
         <v>65</v>
@@ -1829,10 +1829,10 @@
         <v>156</v>
       </c>
       <c r="C56" s="0">
-        <v>4.2377042580507958</v>
+        <v>2.766212180306213</v>
       </c>
       <c r="D56" s="0">
-        <v>31.028341501552422</v>
+        <v>32.560385626959835</v>
       </c>
       <c r="E56" s="0" t="s">
         <v>66</v>
@@ -1846,10 +1846,10 @@
         <v>157</v>
       </c>
       <c r="C57" s="0">
-        <v>0.31262069977909013</v>
+        <v>-2.0687695661574042</v>
       </c>
       <c r="D57" s="0">
-        <v>28.621352082007991</v>
+        <v>29.06618383896145</v>
       </c>
       <c r="E57" s="0" t="s">
         <v>67</v>
@@ -1863,10 +1863,10 @@
         <v>158</v>
       </c>
       <c r="C58" s="0">
-        <v>12.453075544294133</v>
+        <v>9.8573546966866115</v>
       </c>
       <c r="D58" s="0">
-        <v>37.739441940276457</v>
+        <v>41.149636573696071</v>
       </c>
       <c r="E58" s="0" t="s">
         <v>68</v>
@@ -1880,10 +1880,10 @@
         <v>159</v>
       </c>
       <c r="C59" s="0">
-        <v>5.4330375810589802</v>
+        <v>5.0091377805423747</v>
       </c>
       <c r="D59" s="0">
-        <v>33.038893219919878</v>
+        <v>35.614642700573278</v>
       </c>
       <c r="E59" s="0" t="s">
         <v>69</v>
@@ -1897,10 +1897,10 @@
         <v>160</v>
       </c>
       <c r="C60" s="0">
-        <v>1.1561028148207497</v>
+        <v>1.1722864027017903</v>
       </c>
       <c r="D60" s="0">
-        <v>29.181151606017607</v>
+        <v>32.166503689118372</v>
       </c>
       <c r="E60" s="0" t="s">
         <v>70</v>
@@ -1914,10 +1914,10 @@
         <v>161</v>
       </c>
       <c r="C61" s="0">
-        <v>2.1954392343882963</v>
+        <v>-0.1902270827507368</v>
       </c>
       <c r="D61" s="0">
-        <v>29.931413852667337</v>
+        <v>30.552968976830659</v>
       </c>
       <c r="E61" s="0" t="s">
         <v>57</v>
@@ -1931,10 +1931,10 @@
         <v>162</v>
       </c>
       <c r="C62" s="0">
-        <v>1.3654868179444437</v>
+        <v>-0.99093662629376189</v>
       </c>
       <c r="D62" s="0">
-        <v>29.873696574957446</v>
+        <v>30.522970667340637</v>
       </c>
       <c r="E62" s="0" t="s">
         <v>58</v>
@@ -1948,10 +1948,10 @@
         <v>163</v>
       </c>
       <c r="C63" s="0">
-        <v>-4.3490083019396888</v>
+        <v>-4.1402514111701834</v>
       </c>
       <c r="D63" s="0">
-        <v>28.582436101440827</v>
+        <v>28.789879850642954</v>
       </c>
       <c r="E63" s="0" t="s">
         <v>59</v>
@@ -1965,10 +1965,10 @@
         <v>164</v>
       </c>
       <c r="C64" s="0">
-        <v>4.0970141097864552</v>
+        <v>2.560948706641391</v>
       </c>
       <c r="D64" s="0">
-        <v>32.814707484732772</v>
+        <v>34.277625995427094</v>
       </c>
       <c r="E64" s="0" t="s">
         <v>60</v>
@@ -1982,10 +1982,10 @@
         <v>165</v>
       </c>
       <c r="C65" s="0">
-        <v>2.5721513829474607</v>
+        <v>0.58242254301137808</v>
       </c>
       <c r="D65" s="0">
-        <v>30.953753930836797</v>
+        <v>31.965479553418277</v>
       </c>
       <c r="E65" s="0" t="s">
         <v>61</v>
@@ -1999,10 +1999,10 @@
         <v>166</v>
       </c>
       <c r="C66" s="0">
-        <v>0.07271415398842615</v>
+        <v>0.24863292573282286</v>
       </c>
       <c r="D66" s="0">
-        <v>32.006657448948715</v>
+        <v>32.181914240526311</v>
       </c>
       <c r="E66" s="0" t="s">
         <v>62</v>
@@ -2016,10 +2016,10 @@
         <v>167</v>
       </c>
       <c r="C67" s="0">
-        <v>0.28823128981657981</v>
+        <v>-1.5977282310957075</v>
       </c>
       <c r="D67" s="0">
-        <v>30.043194416070705</v>
+        <v>31.159443812323747</v>
       </c>
       <c r="E67" s="0" t="s">
         <v>63</v>
@@ -2033,10 +2033,10 @@
         <v>168</v>
       </c>
       <c r="C68" s="0">
-        <v>9.8968219824114971</v>
+        <v>8.0847478386050149</v>
       </c>
       <c r="D68" s="0">
-        <v>38.025127653679782</v>
+        <v>39.220091268992391</v>
       </c>
       <c r="E68" s="0" t="s">
         <v>64</v>
@@ -2050,10 +2050,10 @@
         <v>169</v>
       </c>
       <c r="C69" s="0">
-        <v>-3.952149790621263</v>
+        <v>-3.5905709373498871</v>
       </c>
       <c r="D69" s="0">
-        <v>26.758253067677554</v>
+        <v>27.116767648691887</v>
       </c>
       <c r="E69" s="0" t="s">
         <v>195</v>
@@ -2067,10 +2067,10 @@
         <v>170</v>
       </c>
       <c r="C70" s="0">
-        <v>-1.9968318930360383</v>
+        <v>-4.0827761594768859</v>
       </c>
       <c r="D70" s="0">
-        <v>28.679373608151021</v>
+        <v>29.598083965498539</v>
       </c>
       <c r="E70" s="0" t="s">
         <v>196</v>

--- a/processed/Summary.xlsx
+++ b/processed/Summary.xlsx
@@ -13,7 +13,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" count="6296" uniqueCount="266">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" count="6720" uniqueCount="266">
   <si>
     <t>Variante</t>
   </si>

--- a/processed/Summary.xlsx
+++ b/processed/Summary.xlsx
@@ -13,7 +13,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" count="6720" uniqueCount="266">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" count="7780" uniqueCount="266">
   <si>
     <t>Variante</t>
   </si>
@@ -881,7 +881,7 @@
   <cols>
     <col min="1" max="1" width="10.7109375" customWidth="true"/>
     <col min="2" max="2" width="8.42578125" customWidth="true"/>
-    <col min="3" max="3" width="15.42578125" customWidth="true"/>
+    <col min="3" max="3" width="12.42578125" customWidth="true"/>
     <col min="4" max="4" width="11.7109375" customWidth="true"/>
     <col min="5" max="5" width="27.7109375" customWidth="true"/>
   </cols>
@@ -911,7 +911,7 @@
         <v>154</v>
       </c>
       <c r="C2" s="0">
-        <v>-1.5123981985905175</v>
+        <v>-12.942845912349883</v>
       </c>
       <c r="D2" s="0">
         <v>29.193503171723478</v>
@@ -928,7 +928,7 @@
         <v>155</v>
       </c>
       <c r="C3" s="0">
-        <v>7.2769296466358124</v>
+        <v>-4.1535180671235574</v>
       </c>
       <c r="D3" s="0">
         <v>36.399503921535114</v>
@@ -945,7 +945,7 @@
         <v>156</v>
       </c>
       <c r="C4" s="0">
-        <v>-0.00073150732900427668</v>
+        <v>-11.431179221088374</v>
       </c>
       <c r="D4" s="0">
         <v>30.82209754006016</v>
@@ -962,7 +962,7 @@
         <v>157</v>
       </c>
       <c r="C5" s="0">
-        <v>-4.1529989223016885</v>
+        <v>-15.583446636061051</v>
       </c>
       <c r="D5" s="0">
         <v>25.856605390682116</v>
@@ -979,7 +979,7 @@
         <v>158</v>
       </c>
       <c r="C6" s="0">
-        <v>11.430447713759369</v>
+        <v>0</v>
       </c>
       <c r="D6" s="0">
         <v>41.321178443697775</v>
@@ -996,7 +996,7 @@
         <v>159</v>
       </c>
       <c r="C7" s="0">
-        <v>5.5900971532230042</v>
+        <v>-5.8403505605363648</v>
       </c>
       <c r="D7" s="0">
         <v>35.207592429549699</v>
@@ -1013,7 +1013,7 @@
         <v>160</v>
       </c>
       <c r="C8" s="0">
-        <v>0.85013838084635851</v>
+        <v>-10.580309332913007</v>
       </c>
       <c r="D8" s="0">
         <v>29.584826287018583</v>
@@ -1030,7 +1030,7 @@
         <v>161</v>
       </c>
       <c r="C9" s="0">
-        <v>-1.2270887697506179</v>
+        <v>-12.657536483509988</v>
       </c>
       <c r="D9" s="0">
         <v>28.204514152463212</v>
@@ -1047,7 +1047,7 @@
         <v>162</v>
       </c>
       <c r="C10" s="0">
-        <v>-1.8571382352471897</v>
+        <v>-13.287585949006555</v>
       </c>
       <c r="D10" s="0">
         <v>26.645821684081032</v>
@@ -1064,7 +1064,7 @@
         <v>163</v>
       </c>
       <c r="C11" s="0">
-        <v>-2.8942786055175733</v>
+        <v>-14.324726319276948</v>
       </c>
       <c r="D11" s="0">
         <v>27.173173493828024</v>
@@ -1081,7 +1081,7 @@
         <v>164</v>
       </c>
       <c r="C12" s="0">
-        <v>1.5528716091300518</v>
+        <v>-9.877576104629318</v>
       </c>
       <c r="D12" s="0">
         <v>30.727952099167926</v>
@@ -1098,7 +1098,7 @@
         <v>165</v>
       </c>
       <c r="C13" s="0">
-        <v>1.6182473027135313</v>
+        <v>-9.8122004110458327</v>
       </c>
       <c r="D13" s="0">
         <v>32.731877740483967</v>
@@ -1115,7 +1115,7 @@
         <v>166</v>
       </c>
       <c r="C14" s="0">
-        <v>1.7651871792486964</v>
+        <v>-9.6652605345106757</v>
       </c>
       <c r="D14" s="0">
         <v>31.111359717291425</v>
@@ -1132,7 +1132,7 @@
         <v>167</v>
       </c>
       <c r="C15" s="0">
-        <v>-4.5714798526237841</v>
+        <v>-16.001927566383159</v>
       </c>
       <c r="D15" s="0">
         <v>26.575750344394461</v>
@@ -1149,7 +1149,7 @@
         <v>168</v>
       </c>
       <c r="C16" s="0">
-        <v>6.559273452859312</v>
+        <v>-4.8711742609000552</v>
       </c>
       <c r="D16" s="0">
         <v>36.778059334151195</v>
@@ -1166,7 +1166,7 @@
         <v>169</v>
       </c>
       <c r="C17" s="0">
-        <v>-2.2339438385611912</v>
+        <v>-13.664391552320559</v>
       </c>
       <c r="D17" s="0">
         <v>27.653330819691554</v>
@@ -1183,7 +1183,7 @@
         <v>154</v>
       </c>
       <c r="C18" s="0">
-        <v>-0.22910080615834821</v>
+        <v>-11.659548519917715</v>
       </c>
       <c r="D18" s="0">
         <v>28.896325333654943</v>
@@ -1200,7 +1200,7 @@
         <v>155</v>
       </c>
       <c r="C19" s="0">
-        <v>8.1526819147105059</v>
+        <v>-3.2777657990488591</v>
       </c>
       <c r="D19" s="0">
         <v>38.303878292256179</v>
@@ -1217,7 +1217,7 @@
         <v>156</v>
       </c>
       <c r="C20" s="0">
-        <v>2.9971001578279486</v>
+        <v>-8.433347555931423</v>
       </c>
       <c r="D20" s="0">
         <v>31.730319754516639</v>
@@ -1234,7 +1234,7 @@
         <v>157</v>
       </c>
       <c r="C21" s="0">
-        <v>-0.71178535398213816</v>
+        <v>-12.142233067741506</v>
       </c>
       <c r="D21" s="0">
         <v>27.370891040424496</v>
@@ -1251,7 +1251,7 @@
         <v>158</v>
       </c>
       <c r="C22" s="0">
-        <v>10.388069661839092</v>
+        <v>-1.042378051920281</v>
       </c>
       <c r="D22" s="0">
         <v>40.866007561169788</v>
@@ -1268,7 +1268,7 @@
         <v>159</v>
       </c>
       <c r="C23" s="0">
-        <v>6.3909709674163437</v>
+        <v>-5.0394767463430234</v>
       </c>
       <c r="D23" s="0">
         <v>34.886089588670238</v>
@@ -1285,7 +1285,7 @@
         <v>160</v>
       </c>
       <c r="C24" s="0">
-        <v>2.7232637933390831</v>
+        <v>-8.7071839204202828</v>
       </c>
       <c r="D24" s="0">
         <v>32.84595312504748</v>
@@ -1302,7 +1302,7 @@
         <v>161</v>
       </c>
       <c r="C25" s="0">
-        <v>-0.68880274128372987</v>
+        <v>-12.119250455043096</v>
       </c>
       <c r="D25" s="0">
         <v>29.158483720395854</v>
@@ -1319,7 +1319,7 @@
         <v>162</v>
       </c>
       <c r="C26" s="0">
-        <v>-0.35453683524034174</v>
+        <v>-11.784984548999713</v>
       </c>
       <c r="D26" s="0">
         <v>30.163452737457</v>
@@ -1336,7 +1336,7 @@
         <v>163</v>
       </c>
       <c r="C27" s="0">
-        <v>-0.049599260015063922</v>
+        <v>-11.480046973774432</v>
       </c>
       <c r="D27" s="0">
         <v>30.258955317447132</v>
@@ -1353,7 +1353,7 @@
         <v>164</v>
       </c>
       <c r="C28" s="0">
-        <v>1.7525931426666039</v>
+        <v>-9.6778545710927659</v>
       </c>
       <c r="D28" s="0">
         <v>30.753866271010804</v>
@@ -1370,7 +1370,7 @@
         <v>165</v>
       </c>
       <c r="C29" s="0">
-        <v>2.4925877181125222</v>
+        <v>-8.9378599956468463</v>
       </c>
       <c r="D29" s="0">
         <v>30.541704631476613</v>
@@ -1387,7 +1387,7 @@
         <v>166</v>
       </c>
       <c r="C30" s="0">
-        <v>3.1645156035963344</v>
+        <v>-8.265932110163039</v>
       </c>
       <c r="D30" s="0">
         <v>33.014841921638805</v>
@@ -1404,7 +1404,7 @@
         <v>167</v>
       </c>
       <c r="C31" s="0">
-        <v>-1.2361327475405139</v>
+        <v>-12.666580461299883</v>
       </c>
       <c r="D31" s="0">
         <v>27.742770393889327</v>
@@ -1421,7 +1421,7 @@
         <v>168</v>
       </c>
       <c r="C32" s="0">
-        <v>6.9139121066934024</v>
+        <v>-4.5165356070659612</v>
       </c>
       <c r="D32" s="0">
         <v>37.318879759023908</v>
@@ -1438,7 +1438,7 @@
         <v>169</v>
       </c>
       <c r="C33" s="0">
-        <v>1.0310076805203563</v>
+        <v>-10.399440033239014</v>
       </c>
       <c r="D33" s="0">
         <v>31.824072825445818</v>
@@ -1455,7 +1455,7 @@
         <v>170</v>
       </c>
       <c r="C34" s="0">
-        <v>-1.207471471046941</v>
+        <v>-12.637919184806305</v>
       </c>
       <c r="D34" s="0">
         <v>30.124451601927014</v>
@@ -1472,7 +1472,7 @@
         <v>154</v>
       </c>
       <c r="C35" s="0">
-        <v>-3.3097069358789306</v>
+        <v>-14.740154649638306</v>
       </c>
       <c r="D35" s="0">
         <v>27.48162916777838</v>
@@ -1489,7 +1489,7 @@
         <v>155</v>
       </c>
       <c r="C36" s="0">
-        <v>6.8177705130457067</v>
+        <v>-4.612677200713664</v>
       </c>
       <c r="D36" s="0">
         <v>36.653420065613766</v>
@@ -1506,7 +1506,7 @@
         <v>156</v>
       </c>
       <c r="C37" s="0">
-        <v>-2.0763228915737435</v>
+        <v>-13.506770605333113</v>
       </c>
       <c r="D37" s="0">
         <v>28.936274478952093</v>
@@ -1523,7 +1523,7 @@
         <v>157</v>
       </c>
       <c r="C38" s="0">
-        <v>-2.0614187737683336</v>
+        <v>-13.491866487527702</v>
       </c>
       <c r="D38" s="0">
         <v>30.459938290007539</v>
@@ -1540,7 +1540,7 @@
         <v>158</v>
       </c>
       <c r="C39" s="0">
-        <v>9.3290541989896152</v>
+        <v>-2.1013935147697529</v>
       </c>
       <c r="D39" s="0">
         <v>40.924304826319187</v>
@@ -1557,7 +1557,7 @@
         <v>159</v>
       </c>
       <c r="C40" s="0">
-        <v>5.2148677225772664</v>
+        <v>-6.2155799911821053</v>
       </c>
       <c r="D40" s="0">
         <v>36.249363943199555</v>
@@ -1574,7 +1574,7 @@
         <v>160</v>
       </c>
       <c r="C41" s="0">
-        <v>0.16777716770293327</v>
+        <v>-11.262670546056439</v>
       </c>
       <c r="D41" s="0">
         <v>31.358757709764092</v>
@@ -1591,7 +1591,7 @@
         <v>161</v>
       </c>
       <c r="C42" s="0">
-        <v>-2.2495783385874875</v>
+        <v>-13.680026052346861</v>
       </c>
       <c r="D42" s="0">
         <v>29.845493632289792</v>
@@ -1608,7 +1608,7 @@
         <v>162</v>
       </c>
       <c r="C43" s="0">
-        <v>-2.2651147920339292</v>
+        <v>-13.695562505793305</v>
       </c>
       <c r="D43" s="0">
         <v>28.630299001278058</v>
@@ -1625,7 +1625,7 @@
         <v>163</v>
       </c>
       <c r="C44" s="0">
-        <v>-4.2462533838926024</v>
+        <v>-15.676701097651971</v>
       </c>
       <c r="D44" s="0">
         <v>27.855065219001162</v>
@@ -1642,7 +1642,7 @@
         <v>164</v>
       </c>
       <c r="C45" s="0">
-        <v>1.6331597770266384</v>
+        <v>-9.7972879367327259</v>
       </c>
       <c r="D45" s="0">
         <v>32.811066281577006</v>
@@ -1659,7 +1659,7 @@
         <v>165</v>
       </c>
       <c r="C46" s="0">
-        <v>1.6716055370401675</v>
+        <v>-9.7588421767192024</v>
       </c>
       <c r="D46" s="0">
         <v>31.729107052395506</v>
@@ -1676,7 +1676,7 @@
         <v>166</v>
       </c>
       <c r="C47" s="0">
-        <v>1.3331077824869104</v>
+        <v>-10.09733993127246</v>
       </c>
       <c r="D47" s="0">
         <v>31.358722150227916</v>
@@ -1693,7 +1693,7 @@
         <v>167</v>
       </c>
       <c r="C48" s="0">
-        <v>-4.9530992663366273</v>
+        <v>-16.383546980096</v>
       </c>
       <c r="D48" s="0">
         <v>26.95117443836828</v>
@@ -1710,7 +1710,7 @@
         <v>168</v>
       </c>
       <c r="C49" s="0">
-        <v>6.3571639253997789</v>
+        <v>-5.0732837883595927</v>
       </c>
       <c r="D49" s="0">
         <v>37.720101065514086</v>
@@ -1727,7 +1727,7 @@
         <v>169</v>
       </c>
       <c r="C50" s="0">
-        <v>-2.417200694032708</v>
+        <v>-13.847648407792077</v>
       </c>
       <c r="D50" s="0">
         <v>28.337632697299966</v>
@@ -1744,7 +1744,7 @@
         <v>171</v>
       </c>
       <c r="C51" s="0">
-        <v>-5.3272906638374975</v>
+        <v>-16.757738377596866</v>
       </c>
       <c r="D51" s="0">
         <v>25.291071096805485</v>
@@ -1761,7 +1761,7 @@
         <v>170</v>
       </c>
       <c r="C52" s="0">
-        <v>-5.9281530217355325</v>
+        <v>-17.358600735494903</v>
       </c>
       <c r="D52" s="0">
         <v>24.92435650173244</v>
@@ -1778,7 +1778,7 @@
         <v>172</v>
       </c>
       <c r="C53" s="0">
-        <v>-3.8353358119562668</v>
+        <v>-15.265783525715637</v>
       </c>
       <c r="D53" s="0">
         <v>27.625150632652019</v>
@@ -1795,7 +1795,7 @@
         <v>154</v>
       </c>
       <c r="C54" s="0">
-        <v>-0.38323158856091333</v>
+        <v>-11.813679302320281</v>
       </c>
       <c r="D54" s="0">
         <v>31.826786033715067</v>
@@ -1812,7 +1812,7 @@
         <v>155</v>
       </c>
       <c r="C55" s="0">
-        <v>4.9289504095071735</v>
+        <v>-6.5014973042521973</v>
       </c>
       <c r="D55" s="0">
         <v>35.665481848706165</v>
@@ -1829,7 +1829,7 @@
         <v>156</v>
       </c>
       <c r="C56" s="0">
-        <v>2.766212180306213</v>
+        <v>-8.6642355334531551</v>
       </c>
       <c r="D56" s="0">
         <v>32.560385626959835</v>
@@ -1846,7 +1846,7 @@
         <v>157</v>
       </c>
       <c r="C57" s="0">
-        <v>-2.0687695661574042</v>
+        <v>-13.499217279916778</v>
       </c>
       <c r="D57" s="0">
         <v>29.06618383896145</v>
@@ -1863,7 +1863,7 @@
         <v>158</v>
       </c>
       <c r="C58" s="0">
-        <v>9.8573546966866115</v>
+        <v>-1.5730930170727571</v>
       </c>
       <c r="D58" s="0">
         <v>41.149636573696071</v>
@@ -1880,7 +1880,7 @@
         <v>159</v>
       </c>
       <c r="C59" s="0">
-        <v>5.0091377805423747</v>
+        <v>-6.4213099332169934</v>
       </c>
       <c r="D59" s="0">
         <v>35.614642700573278</v>
@@ -1897,7 +1897,7 @@
         <v>160</v>
       </c>
       <c r="C60" s="0">
-        <v>1.1722864027017903</v>
+        <v>-10.258161311057581</v>
       </c>
       <c r="D60" s="0">
         <v>32.166503689118372</v>
@@ -1914,7 +1914,7 @@
         <v>161</v>
       </c>
       <c r="C61" s="0">
-        <v>-0.1902270827507368</v>
+        <v>-11.620674796510109</v>
       </c>
       <c r="D61" s="0">
         <v>30.552968976830659</v>
@@ -1931,7 +1931,7 @@
         <v>162</v>
       </c>
       <c r="C62" s="0">
-        <v>-0.99093662629376189</v>
+        <v>-12.421384340053132</v>
       </c>
       <c r="D62" s="0">
         <v>30.522970667340637</v>
@@ -1948,7 +1948,7 @@
         <v>163</v>
       </c>
       <c r="C63" s="0">
-        <v>-4.1402514111701834</v>
+        <v>-15.570699124929552</v>
       </c>
       <c r="D63" s="0">
         <v>28.789879850642954</v>
@@ -1965,7 +1965,7 @@
         <v>164</v>
       </c>
       <c r="C64" s="0">
-        <v>2.560948706641391</v>
+        <v>-8.8694990071179802</v>
       </c>
       <c r="D64" s="0">
         <v>34.277625995427094</v>
@@ -1982,7 +1982,7 @@
         <v>165</v>
       </c>
       <c r="C65" s="0">
-        <v>0.58242254301137808</v>
+        <v>-10.848025170747988</v>
       </c>
       <c r="D65" s="0">
         <v>31.965479553418277</v>
@@ -1999,7 +1999,7 @@
         <v>166</v>
       </c>
       <c r="C66" s="0">
-        <v>0.24863292573282286</v>
+        <v>-11.181814788026543</v>
       </c>
       <c r="D66" s="0">
         <v>32.181914240526311</v>
@@ -2016,7 +2016,7 @@
         <v>167</v>
       </c>
       <c r="C67" s="0">
-        <v>-1.5977282310957075</v>
+        <v>-13.02817594485508</v>
       </c>
       <c r="D67" s="0">
         <v>31.159443812323747</v>
@@ -2033,7 +2033,7 @@
         <v>168</v>
       </c>
       <c r="C68" s="0">
-        <v>8.0847478386050149</v>
+        <v>-3.3456998751543572</v>
       </c>
       <c r="D68" s="0">
         <v>39.220091268992391</v>
@@ -2050,7 +2050,7 @@
         <v>169</v>
       </c>
       <c r="C69" s="0">
-        <v>-3.5905709373498871</v>
+        <v>-15.021018651109257</v>
       </c>
       <c r="D69" s="0">
         <v>27.116767648691887</v>
@@ -2067,7 +2067,7 @@
         <v>170</v>
       </c>
       <c r="C70" s="0">
-        <v>-4.0827761594768859</v>
+        <v>-15.513223873236255</v>
       </c>
       <c r="D70" s="0">
         <v>29.598083965498539</v>

--- a/processed/Summary.xlsx
+++ b/processed/Summary.xlsx
@@ -13,7 +13,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" count="6720" uniqueCount="266">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" count="7780" uniqueCount="266">
   <si>
     <t>Variante</t>
   </si>
@@ -881,7 +881,7 @@
   <cols>
     <col min="1" max="1" width="10.7109375" customWidth="true"/>
     <col min="2" max="2" width="8.42578125" customWidth="true"/>
-    <col min="3" max="3" width="15.42578125" customWidth="true"/>
+    <col min="3" max="3" width="12.42578125" customWidth="true"/>
     <col min="4" max="4" width="11.7109375" customWidth="true"/>
     <col min="5" max="5" width="27.7109375" customWidth="true"/>
   </cols>
@@ -911,7 +911,7 @@
         <v>154</v>
       </c>
       <c r="C2" s="0">
-        <v>-1.5123981985905175</v>
+        <v>-12.942845912349883</v>
       </c>
       <c r="D2" s="0">
         <v>29.193503171723478</v>
@@ -928,7 +928,7 @@
         <v>155</v>
       </c>
       <c r="C3" s="0">
-        <v>7.2769296466358124</v>
+        <v>-4.1535180671235574</v>
       </c>
       <c r="D3" s="0">
         <v>36.399503921535114</v>
@@ -945,7 +945,7 @@
         <v>156</v>
       </c>
       <c r="C4" s="0">
-        <v>-0.00073150732900427668</v>
+        <v>-11.431179221088374</v>
       </c>
       <c r="D4" s="0">
         <v>30.82209754006016</v>
@@ -962,7 +962,7 @@
         <v>157</v>
       </c>
       <c r="C5" s="0">
-        <v>-4.1529989223016885</v>
+        <v>-15.583446636061051</v>
       </c>
       <c r="D5" s="0">
         <v>25.856605390682116</v>
@@ -979,7 +979,7 @@
         <v>158</v>
       </c>
       <c r="C6" s="0">
-        <v>11.430447713759369</v>
+        <v>0</v>
       </c>
       <c r="D6" s="0">
         <v>41.321178443697775</v>
@@ -996,7 +996,7 @@
         <v>159</v>
       </c>
       <c r="C7" s="0">
-        <v>5.5900971532230042</v>
+        <v>-5.8403505605363648</v>
       </c>
       <c r="D7" s="0">
         <v>35.207592429549699</v>
@@ -1013,7 +1013,7 @@
         <v>160</v>
       </c>
       <c r="C8" s="0">
-        <v>0.85013838084635851</v>
+        <v>-10.580309332913007</v>
       </c>
       <c r="D8" s="0">
         <v>29.584826287018583</v>
@@ -1030,7 +1030,7 @@
         <v>161</v>
       </c>
       <c r="C9" s="0">
-        <v>-1.2270887697506179</v>
+        <v>-12.657536483509988</v>
       </c>
       <c r="D9" s="0">
         <v>28.204514152463212</v>
@@ -1047,7 +1047,7 @@
         <v>162</v>
       </c>
       <c r="C10" s="0">
-        <v>-1.8571382352471897</v>
+        <v>-13.287585949006555</v>
       </c>
       <c r="D10" s="0">
         <v>26.645821684081032</v>
@@ -1064,7 +1064,7 @@
         <v>163</v>
       </c>
       <c r="C11" s="0">
-        <v>-2.8942786055175733</v>
+        <v>-14.324726319276948</v>
       </c>
       <c r="D11" s="0">
         <v>27.173173493828024</v>
@@ -1081,7 +1081,7 @@
         <v>164</v>
       </c>
       <c r="C12" s="0">
-        <v>1.5528716091300518</v>
+        <v>-9.877576104629318</v>
       </c>
       <c r="D12" s="0">
         <v>30.727952099167926</v>
@@ -1098,7 +1098,7 @@
         <v>165</v>
       </c>
       <c r="C13" s="0">
-        <v>1.6182473027135313</v>
+        <v>-9.8122004110458327</v>
       </c>
       <c r="D13" s="0">
         <v>32.731877740483967</v>
@@ -1115,7 +1115,7 @@
         <v>166</v>
       </c>
       <c r="C14" s="0">
-        <v>1.7651871792486964</v>
+        <v>-9.6652605345106757</v>
       </c>
       <c r="D14" s="0">
         <v>31.111359717291425</v>
@@ -1132,7 +1132,7 @@
         <v>167</v>
       </c>
       <c r="C15" s="0">
-        <v>-4.5714798526237841</v>
+        <v>-16.001927566383159</v>
       </c>
       <c r="D15" s="0">
         <v>26.575750344394461</v>
@@ -1149,7 +1149,7 @@
         <v>168</v>
       </c>
       <c r="C16" s="0">
-        <v>6.559273452859312</v>
+        <v>-4.8711742609000552</v>
       </c>
       <c r="D16" s="0">
         <v>36.778059334151195</v>
@@ -1166,7 +1166,7 @@
         <v>169</v>
       </c>
       <c r="C17" s="0">
-        <v>-2.2339438385611912</v>
+        <v>-13.664391552320559</v>
       </c>
       <c r="D17" s="0">
         <v>27.653330819691554</v>
@@ -1183,7 +1183,7 @@
         <v>154</v>
       </c>
       <c r="C18" s="0">
-        <v>-0.22910080615834821</v>
+        <v>-11.659548519917715</v>
       </c>
       <c r="D18" s="0">
         <v>28.896325333654943</v>
@@ -1200,7 +1200,7 @@
         <v>155</v>
       </c>
       <c r="C19" s="0">
-        <v>8.1526819147105059</v>
+        <v>-3.2777657990488591</v>
       </c>
       <c r="D19" s="0">
         <v>38.303878292256179</v>
@@ -1217,7 +1217,7 @@
         <v>156</v>
       </c>
       <c r="C20" s="0">
-        <v>2.9971001578279486</v>
+        <v>-8.433347555931423</v>
       </c>
       <c r="D20" s="0">
         <v>31.730319754516639</v>
@@ -1234,7 +1234,7 @@
         <v>157</v>
       </c>
       <c r="C21" s="0">
-        <v>-0.71178535398213816</v>
+        <v>-12.142233067741506</v>
       </c>
       <c r="D21" s="0">
         <v>27.370891040424496</v>
@@ -1251,7 +1251,7 @@
         <v>158</v>
       </c>
       <c r="C22" s="0">
-        <v>10.388069661839092</v>
+        <v>-1.042378051920281</v>
       </c>
       <c r="D22" s="0">
         <v>40.866007561169788</v>
@@ -1268,7 +1268,7 @@
         <v>159</v>
       </c>
       <c r="C23" s="0">
-        <v>6.3909709674163437</v>
+        <v>-5.0394767463430234</v>
       </c>
       <c r="D23" s="0">
         <v>34.886089588670238</v>
@@ -1285,7 +1285,7 @@
         <v>160</v>
       </c>
       <c r="C24" s="0">
-        <v>2.7232637933390831</v>
+        <v>-8.7071839204202828</v>
       </c>
       <c r="D24" s="0">
         <v>32.84595312504748</v>
@@ -1302,7 +1302,7 @@
         <v>161</v>
       </c>
       <c r="C25" s="0">
-        <v>-0.68880274128372987</v>
+        <v>-12.119250455043096</v>
       </c>
       <c r="D25" s="0">
         <v>29.158483720395854</v>
@@ -1319,7 +1319,7 @@
         <v>162</v>
       </c>
       <c r="C26" s="0">
-        <v>-0.35453683524034174</v>
+        <v>-11.784984548999713</v>
       </c>
       <c r="D26" s="0">
         <v>30.163452737457</v>
@@ -1336,7 +1336,7 @@
         <v>163</v>
       </c>
       <c r="C27" s="0">
-        <v>-0.049599260015063922</v>
+        <v>-11.480046973774432</v>
       </c>
       <c r="D27" s="0">
         <v>30.258955317447132</v>
@@ -1353,7 +1353,7 @@
         <v>164</v>
       </c>
       <c r="C28" s="0">
-        <v>1.7525931426666039</v>
+        <v>-9.6778545710927659</v>
       </c>
       <c r="D28" s="0">
         <v>30.753866271010804</v>
@@ -1370,7 +1370,7 @@
         <v>165</v>
       </c>
       <c r="C29" s="0">
-        <v>2.4925877181125222</v>
+        <v>-8.9378599956468463</v>
       </c>
       <c r="D29" s="0">
         <v>30.541704631476613</v>
@@ -1387,7 +1387,7 @@
         <v>166</v>
       </c>
       <c r="C30" s="0">
-        <v>3.1645156035963344</v>
+        <v>-8.265932110163039</v>
       </c>
       <c r="D30" s="0">
         <v>33.014841921638805</v>
@@ -1404,7 +1404,7 @@
         <v>167</v>
       </c>
       <c r="C31" s="0">
-        <v>-1.2361327475405139</v>
+        <v>-12.666580461299883</v>
       </c>
       <c r="D31" s="0">
         <v>27.742770393889327</v>
@@ -1421,7 +1421,7 @@
         <v>168</v>
       </c>
       <c r="C32" s="0">
-        <v>6.9139121066934024</v>
+        <v>-4.5165356070659612</v>
       </c>
       <c r="D32" s="0">
         <v>37.318879759023908</v>
@@ -1438,7 +1438,7 @@
         <v>169</v>
       </c>
       <c r="C33" s="0">
-        <v>1.0310076805203563</v>
+        <v>-10.399440033239014</v>
       </c>
       <c r="D33" s="0">
         <v>31.824072825445818</v>
@@ -1455,7 +1455,7 @@
         <v>170</v>
       </c>
       <c r="C34" s="0">
-        <v>-1.207471471046941</v>
+        <v>-12.637919184806305</v>
       </c>
       <c r="D34" s="0">
         <v>30.124451601927014</v>
@@ -1472,7 +1472,7 @@
         <v>154</v>
       </c>
       <c r="C35" s="0">
-        <v>-3.3097069358789306</v>
+        <v>-14.740154649638306</v>
       </c>
       <c r="D35" s="0">
         <v>27.48162916777838</v>
@@ -1489,7 +1489,7 @@
         <v>155</v>
       </c>
       <c r="C36" s="0">
-        <v>6.8177705130457067</v>
+        <v>-4.612677200713664</v>
       </c>
       <c r="D36" s="0">
         <v>36.653420065613766</v>
@@ -1506,7 +1506,7 @@
         <v>156</v>
       </c>
       <c r="C37" s="0">
-        <v>-2.0763228915737435</v>
+        <v>-13.506770605333113</v>
       </c>
       <c r="D37" s="0">
         <v>28.936274478952093</v>
@@ -1523,7 +1523,7 @@
         <v>157</v>
       </c>
       <c r="C38" s="0">
-        <v>-2.0614187737683336</v>
+        <v>-13.491866487527702</v>
       </c>
       <c r="D38" s="0">
         <v>30.459938290007539</v>
@@ -1540,7 +1540,7 @@
         <v>158</v>
       </c>
       <c r="C39" s="0">
-        <v>9.3290541989896152</v>
+        <v>-2.1013935147697529</v>
       </c>
       <c r="D39" s="0">
         <v>40.924304826319187</v>
@@ -1557,7 +1557,7 @@
         <v>159</v>
       </c>
       <c r="C40" s="0">
-        <v>5.2148677225772664</v>
+        <v>-6.2155799911821053</v>
       </c>
       <c r="D40" s="0">
         <v>36.249363943199555</v>
@@ -1574,7 +1574,7 @@
         <v>160</v>
       </c>
       <c r="C41" s="0">
-        <v>0.16777716770293327</v>
+        <v>-11.262670546056439</v>
       </c>
       <c r="D41" s="0">
         <v>31.358757709764092</v>
@@ -1591,7 +1591,7 @@
         <v>161</v>
       </c>
       <c r="C42" s="0">
-        <v>-2.2495783385874875</v>
+        <v>-13.680026052346861</v>
       </c>
       <c r="D42" s="0">
         <v>29.845493632289792</v>
@@ -1608,7 +1608,7 @@
         <v>162</v>
       </c>
       <c r="C43" s="0">
-        <v>-2.2651147920339292</v>
+        <v>-13.695562505793305</v>
       </c>
       <c r="D43" s="0">
         <v>28.630299001278058</v>
@@ -1625,7 +1625,7 @@
         <v>163</v>
       </c>
       <c r="C44" s="0">
-        <v>-4.2462533838926024</v>
+        <v>-15.676701097651971</v>
       </c>
       <c r="D44" s="0">
         <v>27.855065219001162</v>
@@ -1642,7 +1642,7 @@
         <v>164</v>
       </c>
       <c r="C45" s="0">
-        <v>1.6331597770266384</v>
+        <v>-9.7972879367327259</v>
       </c>
       <c r="D45" s="0">
         <v>32.811066281577006</v>
@@ -1659,7 +1659,7 @@
         <v>165</v>
       </c>
       <c r="C46" s="0">
-        <v>1.6716055370401675</v>
+        <v>-9.7588421767192024</v>
       </c>
       <c r="D46" s="0">
         <v>31.729107052395506</v>
@@ -1676,7 +1676,7 @@
         <v>166</v>
       </c>
       <c r="C47" s="0">
-        <v>1.3331077824869104</v>
+        <v>-10.09733993127246</v>
       </c>
       <c r="D47" s="0">
         <v>31.358722150227916</v>
@@ -1693,7 +1693,7 @@
         <v>167</v>
       </c>
       <c r="C48" s="0">
-        <v>-4.9530992663366273</v>
+        <v>-16.383546980096</v>
       </c>
       <c r="D48" s="0">
         <v>26.95117443836828</v>
@@ -1710,7 +1710,7 @@
         <v>168</v>
       </c>
       <c r="C49" s="0">
-        <v>6.3571639253997789</v>
+        <v>-5.0732837883595927</v>
       </c>
       <c r="D49" s="0">
         <v>37.720101065514086</v>
@@ -1727,7 +1727,7 @@
         <v>169</v>
       </c>
       <c r="C50" s="0">
-        <v>-2.417200694032708</v>
+        <v>-13.847648407792077</v>
       </c>
       <c r="D50" s="0">
         <v>28.337632697299966</v>
@@ -1744,7 +1744,7 @@
         <v>171</v>
       </c>
       <c r="C51" s="0">
-        <v>-5.3272906638374975</v>
+        <v>-16.757738377596866</v>
       </c>
       <c r="D51" s="0">
         <v>25.291071096805485</v>
@@ -1761,7 +1761,7 @@
         <v>170</v>
       </c>
       <c r="C52" s="0">
-        <v>-5.9281530217355325</v>
+        <v>-17.358600735494903</v>
       </c>
       <c r="D52" s="0">
         <v>24.92435650173244</v>
@@ -1778,7 +1778,7 @@
         <v>172</v>
       </c>
       <c r="C53" s="0">
-        <v>-3.8353358119562668</v>
+        <v>-15.265783525715637</v>
       </c>
       <c r="D53" s="0">
         <v>27.625150632652019</v>
@@ -1795,7 +1795,7 @@
         <v>154</v>
       </c>
       <c r="C54" s="0">
-        <v>-0.38323158856091333</v>
+        <v>-11.813679302320281</v>
       </c>
       <c r="D54" s="0">
         <v>31.826786033715067</v>
@@ -1812,7 +1812,7 @@
         <v>155</v>
       </c>
       <c r="C55" s="0">
-        <v>4.9289504095071735</v>
+        <v>-6.5014973042521973</v>
       </c>
       <c r="D55" s="0">
         <v>35.665481848706165</v>
@@ -1829,7 +1829,7 @@
         <v>156</v>
       </c>
       <c r="C56" s="0">
-        <v>2.766212180306213</v>
+        <v>-8.6642355334531551</v>
       </c>
       <c r="D56" s="0">
         <v>32.560385626959835</v>
@@ -1846,7 +1846,7 @@
         <v>157</v>
       </c>
       <c r="C57" s="0">
-        <v>-2.0687695661574042</v>
+        <v>-13.499217279916778</v>
       </c>
       <c r="D57" s="0">
         <v>29.06618383896145</v>
@@ -1863,7 +1863,7 @@
         <v>158</v>
       </c>
       <c r="C58" s="0">
-        <v>9.8573546966866115</v>
+        <v>-1.5730930170727571</v>
       </c>
       <c r="D58" s="0">
         <v>41.149636573696071</v>
@@ -1880,7 +1880,7 @@
         <v>159</v>
       </c>
       <c r="C59" s="0">
-        <v>5.0091377805423747</v>
+        <v>-6.4213099332169934</v>
       </c>
       <c r="D59" s="0">
         <v>35.614642700573278</v>
@@ -1897,7 +1897,7 @@
         <v>160</v>
       </c>
       <c r="C60" s="0">
-        <v>1.1722864027017903</v>
+        <v>-10.258161311057581</v>
       </c>
       <c r="D60" s="0">
         <v>32.166503689118372</v>
@@ -1914,7 +1914,7 @@
         <v>161</v>
       </c>
       <c r="C61" s="0">
-        <v>-0.1902270827507368</v>
+        <v>-11.620674796510109</v>
       </c>
       <c r="D61" s="0">
         <v>30.552968976830659</v>
@@ -1931,7 +1931,7 @@
         <v>162</v>
       </c>
       <c r="C62" s="0">
-        <v>-0.99093662629376189</v>
+        <v>-12.421384340053132</v>
       </c>
       <c r="D62" s="0">
         <v>30.522970667340637</v>
@@ -1948,7 +1948,7 @@
         <v>163</v>
       </c>
       <c r="C63" s="0">
-        <v>-4.1402514111701834</v>
+        <v>-15.570699124929552</v>
       </c>
       <c r="D63" s="0">
         <v>28.789879850642954</v>
@@ -1965,7 +1965,7 @@
         <v>164</v>
       </c>
       <c r="C64" s="0">
-        <v>2.560948706641391</v>
+        <v>-8.8694990071179802</v>
       </c>
       <c r="D64" s="0">
         <v>34.277625995427094</v>
@@ -1982,7 +1982,7 @@
         <v>165</v>
       </c>
       <c r="C65" s="0">
-        <v>0.58242254301137808</v>
+        <v>-10.848025170747988</v>
       </c>
       <c r="D65" s="0">
         <v>31.965479553418277</v>
@@ -1999,7 +1999,7 @@
         <v>166</v>
       </c>
       <c r="C66" s="0">
-        <v>0.24863292573282286</v>
+        <v>-11.181814788026543</v>
       </c>
       <c r="D66" s="0">
         <v>32.181914240526311</v>
@@ -2016,7 +2016,7 @@
         <v>167</v>
       </c>
       <c r="C67" s="0">
-        <v>-1.5977282310957075</v>
+        <v>-13.02817594485508</v>
       </c>
       <c r="D67" s="0">
         <v>31.159443812323747</v>
@@ -2033,7 +2033,7 @@
         <v>168</v>
       </c>
       <c r="C68" s="0">
-        <v>8.0847478386050149</v>
+        <v>-3.3456998751543572</v>
       </c>
       <c r="D68" s="0">
         <v>39.220091268992391</v>
@@ -2050,7 +2050,7 @@
         <v>169</v>
       </c>
       <c r="C69" s="0">
-        <v>-3.5905709373498871</v>
+        <v>-15.021018651109257</v>
       </c>
       <c r="D69" s="0">
         <v>27.116767648691887</v>
@@ -2067,7 +2067,7 @@
         <v>170</v>
       </c>
       <c r="C70" s="0">
-        <v>-4.0827761594768859</v>
+        <v>-15.513223873236255</v>
       </c>
       <c r="D70" s="0">
         <v>29.598083965498539</v>
@@ -2078,4 +2078,237 @@
     </row>
   </sheetData>
 </worksheet>
+</file>
+
+<file path=customXml/item1.xml><?xml version="1.0" encoding="utf-8"?>
+<ct:contentTypeSchema xmlns:ct="http://schemas.microsoft.com/office/2006/metadata/contentType" xmlns:ma="http://schemas.microsoft.com/office/2006/metadata/properties/metaAttributes" ct:_="" ma:_="" ma:contentTypeName="Document" ma:contentTypeID="0x010100DB6464D95EE8BE4988C1004DEC1C031E" ma:contentTypeVersion="12" ma:contentTypeDescription="Create a new document." ma:contentTypeScope="" ma:versionID="5fc92b7469d1fdcf64629af86f6a4dec">
+  <xsd:schema xmlns:xsd="http://www.w3.org/2001/XMLSchema" xmlns:xs="http://www.w3.org/2001/XMLSchema" xmlns:p="http://schemas.microsoft.com/office/2006/metadata/properties" xmlns:ns2="d322d7be-b080-46d2-ae8a-a9780d0c4321" xmlns:ns3="3115b7d7-2391-4f2b-9f7a-90cea2b5d85c" targetNamespace="http://schemas.microsoft.com/office/2006/metadata/properties" ma:root="true" ma:fieldsID="b0710a91d282fd62543e6e12b15b7ed9" ns2:_="" ns3:_="">
+    <xsd:import namespace="d322d7be-b080-46d2-ae8a-a9780d0c4321"/>
+    <xsd:import namespace="3115b7d7-2391-4f2b-9f7a-90cea2b5d85c"/>
+    <xsd:element name="properties">
+      <xsd:complexType>
+        <xsd:sequence>
+          <xsd:element name="documentManagement">
+            <xsd:complexType>
+              <xsd:all>
+                <xsd:element ref="ns2:MediaServiceMetadata" minOccurs="0"/>
+                <xsd:element ref="ns2:MediaServiceFastMetadata" minOccurs="0"/>
+                <xsd:element ref="ns2:MediaServiceSearchProperties" minOccurs="0"/>
+                <xsd:element ref="ns2:MediaServiceDateTaken" minOccurs="0"/>
+                <xsd:element ref="ns2:MediaServiceGenerationTime" minOccurs="0"/>
+                <xsd:element ref="ns2:MediaServiceEventHashCode" minOccurs="0"/>
+                <xsd:element ref="ns2:MediaLengthInSeconds" minOccurs="0"/>
+                <xsd:element ref="ns2:lcf76f155ced4ddcb4097134ff3c332f" minOccurs="0"/>
+                <xsd:element ref="ns3:TaxCatchAll" minOccurs="0"/>
+                <xsd:element ref="ns2:MediaServiceOCR" minOccurs="0"/>
+                <xsd:element ref="ns2:MediaServiceBillingMetadata" minOccurs="0"/>
+              </xsd:all>
+            </xsd:complexType>
+          </xsd:element>
+        </xsd:sequence>
+      </xsd:complexType>
+    </xsd:element>
+  </xsd:schema>
+  <xsd:schema xmlns:xsd="http://www.w3.org/2001/XMLSchema" xmlns:xs="http://www.w3.org/2001/XMLSchema" xmlns:dms="http://schemas.microsoft.com/office/2006/documentManagement/types" xmlns:pc="http://schemas.microsoft.com/office/infopath/2007/PartnerControls" targetNamespace="d322d7be-b080-46d2-ae8a-a9780d0c4321" elementFormDefault="qualified">
+    <xsd:import namespace="http://schemas.microsoft.com/office/2006/documentManagement/types"/>
+    <xsd:import namespace="http://schemas.microsoft.com/office/infopath/2007/PartnerControls"/>
+    <xsd:element name="MediaServiceMetadata" ma:index="8" nillable="true" ma:displayName="MediaServiceMetadata" ma:hidden="true" ma:internalName="MediaServiceMetadata" ma:readOnly="true">
+      <xsd:simpleType>
+        <xsd:restriction base="dms:Note"/>
+      </xsd:simpleType>
+    </xsd:element>
+    <xsd:element name="MediaServiceFastMetadata" ma:index="9" nillable="true" ma:displayName="MediaServiceFastMetadata" ma:hidden="true" ma:internalName="MediaServiceFastMetadata" ma:readOnly="true">
+      <xsd:simpleType>
+        <xsd:restriction base="dms:Note"/>
+      </xsd:simpleType>
+    </xsd:element>
+    <xsd:element name="MediaServiceSearchProperties" ma:index="10" nillable="true" ma:displayName="MediaServiceSearchProperties" ma:hidden="true" ma:internalName="MediaServiceSearchProperties" ma:readOnly="true">
+      <xsd:simpleType>
+        <xsd:restriction base="dms:Note"/>
+      </xsd:simpleType>
+    </xsd:element>
+    <xsd:element name="MediaServiceDateTaken" ma:index="11" nillable="true" ma:displayName="MediaServiceDateTaken" ma:hidden="true" ma:indexed="true" ma:internalName="MediaServiceDateTaken" ma:readOnly="true">
+      <xsd:simpleType>
+        <xsd:restriction base="dms:Text"/>
+      </xsd:simpleType>
+    </xsd:element>
+    <xsd:element name="MediaServiceGenerationTime" ma:index="12" nillable="true" ma:displayName="MediaServiceGenerationTime" ma:hidden="true" ma:internalName="MediaServiceGenerationTime" ma:readOnly="true">
+      <xsd:simpleType>
+        <xsd:restriction base="dms:Text"/>
+      </xsd:simpleType>
+    </xsd:element>
+    <xsd:element name="MediaServiceEventHashCode" ma:index="13" nillable="true" ma:displayName="MediaServiceEventHashCode" ma:hidden="true" ma:internalName="MediaServiceEventHashCode" ma:readOnly="true">
+      <xsd:simpleType>
+        <xsd:restriction base="dms:Text"/>
+      </xsd:simpleType>
+    </xsd:element>
+    <xsd:element name="MediaLengthInSeconds" ma:index="14" nillable="true" ma:displayName="MediaLengthInSeconds" ma:hidden="true" ma:internalName="MediaLengthInSeconds" ma:readOnly="true">
+      <xsd:simpleType>
+        <xsd:restriction base="dms:Unknown"/>
+      </xsd:simpleType>
+    </xsd:element>
+    <xsd:element name="lcf76f155ced4ddcb4097134ff3c332f" ma:index="16" nillable="true" ma:taxonomy="true" ma:internalName="lcf76f155ced4ddcb4097134ff3c332f" ma:taxonomyFieldName="MediaServiceImageTags" ma:displayName="Image Tags" ma:readOnly="false" ma:fieldId="{5cf76f15-5ced-4ddc-b409-7134ff3c332f}" ma:taxonomyMulti="true" ma:sspId="7b283962-0b2e-4b8a-9024-217be88df344" ma:termSetId="09814cd3-568e-fe90-9814-8d621ff8fb84" ma:anchorId="fba54fb3-c3e1-fe81-a776-ca4b69148c4d" ma:open="true" ma:isKeyword="false">
+      <xsd:complexType>
+        <xsd:sequence>
+          <xsd:element ref="pc:Terms" minOccurs="0" maxOccurs="1"/>
+        </xsd:sequence>
+      </xsd:complexType>
+    </xsd:element>
+    <xsd:element name="MediaServiceOCR" ma:index="18" nillable="true" ma:displayName="Extracted Text" ma:internalName="MediaServiceOCR" ma:readOnly="true">
+      <xsd:simpleType>
+        <xsd:restriction base="dms:Note">
+          <xsd:maxLength value="255"/>
+        </xsd:restriction>
+      </xsd:simpleType>
+    </xsd:element>
+    <xsd:element name="MediaServiceBillingMetadata" ma:index="19" nillable="true" ma:displayName="MediaServiceBillingMetadata" ma:hidden="true" ma:internalName="MediaServiceBillingMetadata" ma:readOnly="true">
+      <xsd:simpleType>
+        <xsd:restriction base="dms:Note"/>
+      </xsd:simpleType>
+    </xsd:element>
+  </xsd:schema>
+  <xsd:schema xmlns:xsd="http://www.w3.org/2001/XMLSchema" xmlns:xs="http://www.w3.org/2001/XMLSchema" xmlns:dms="http://schemas.microsoft.com/office/2006/documentManagement/types" xmlns:pc="http://schemas.microsoft.com/office/infopath/2007/PartnerControls" targetNamespace="3115b7d7-2391-4f2b-9f7a-90cea2b5d85c" elementFormDefault="qualified">
+    <xsd:import namespace="http://schemas.microsoft.com/office/2006/documentManagement/types"/>
+    <xsd:import namespace="http://schemas.microsoft.com/office/infopath/2007/PartnerControls"/>
+    <xsd:element name="TaxCatchAll" ma:index="17" nillable="true" ma:displayName="Taxonomy Catch All Column" ma:hidden="true" ma:list="{d361bd93-4fdc-4f53-bf8d-3e29ed88fac9}" ma:internalName="TaxCatchAll" ma:showField="CatchAllData" ma:web="3115b7d7-2391-4f2b-9f7a-90cea2b5d85c">
+      <xsd:complexType>
+        <xsd:complexContent>
+          <xsd:extension base="dms:MultiChoiceLookup">
+            <xsd:sequence>
+              <xsd:element name="Value" type="dms:Lookup" maxOccurs="unbounded" minOccurs="0" nillable="true"/>
+            </xsd:sequence>
+          </xsd:extension>
+        </xsd:complexContent>
+      </xsd:complexType>
+    </xsd:element>
+  </xsd:schema>
+  <xsd:schema xmlns="http://schemas.openxmlformats.org/package/2006/metadata/core-properties" xmlns:xsd="http://www.w3.org/2001/XMLSchema" xmlns:xsi="http://www.w3.org/2001/XMLSchema-instance" xmlns:dc="http://purl.org/dc/elements/1.1/" xmlns:dcterms="http://purl.org/dc/terms/" xmlns:odoc="http://schemas.microsoft.com/internal/obd" targetNamespace="http://schemas.openxmlformats.org/package/2006/metadata/core-properties" elementFormDefault="qualified" attributeFormDefault="unqualified" blockDefault="#all">
+    <xsd:import namespace="http://purl.org/dc/elements/1.1/" schemaLocation="http://dublincore.org/schemas/xmls/qdc/2003/04/02/dc.xsd"/>
+    <xsd:import namespace="http://purl.org/dc/terms/" schemaLocation="http://dublincore.org/schemas/xmls/qdc/2003/04/02/dcterms.xsd"/>
+    <xsd:element name="coreProperties" type="CT_coreProperties"/>
+    <xsd:complexType name="CT_coreProperties">
+      <xsd:all>
+        <xsd:element ref="dc:creator" minOccurs="0" maxOccurs="1"/>
+        <xsd:element ref="dcterms:created" minOccurs="0" maxOccurs="1"/>
+        <xsd:element ref="dc:identifier" minOccurs="0" maxOccurs="1"/>
+        <xsd:element name="contentType" minOccurs="0" maxOccurs="1" type="xsd:string" ma:index="0" ma:displayName="Content Type"/>
+        <xsd:element ref="dc:title" minOccurs="0" maxOccurs="1" ma:index="4" ma:displayName="Title"/>
+        <xsd:element ref="dc:subject" minOccurs="0" maxOccurs="1"/>
+        <xsd:element ref="dc:description" minOccurs="0" maxOccurs="1"/>
+        <xsd:element name="keywords" minOccurs="0" maxOccurs="1" type="xsd:string"/>
+        <xsd:element ref="dc:language" minOccurs="0" maxOccurs="1"/>
+        <xsd:element name="category" minOccurs="0" maxOccurs="1" type="xsd:string"/>
+        <xsd:element name="version" minOccurs="0" maxOccurs="1" type="xsd:string"/>
+        <xsd:element name="revision" minOccurs="0" maxOccurs="1" type="xsd:string">
+          <xsd:annotation>
+            <xsd:documentation>
+                        This value indicates the number of saves or revisions. The application is responsible for updating this value after each revision.
+                    </xsd:documentation>
+          </xsd:annotation>
+        </xsd:element>
+        <xsd:element name="lastModifiedBy" minOccurs="0" maxOccurs="1" type="xsd:string"/>
+        <xsd:element ref="dcterms:modified" minOccurs="0" maxOccurs="1"/>
+        <xsd:element name="contentStatus" minOccurs="0" maxOccurs="1" type="xsd:string"/>
+      </xsd:all>
+    </xsd:complexType>
+  </xsd:schema>
+  <xs:schema xmlns:pc="http://schemas.microsoft.com/office/infopath/2007/PartnerControls" xmlns:xs="http://www.w3.org/2001/XMLSchema" targetNamespace="http://schemas.microsoft.com/office/infopath/2007/PartnerControls" elementFormDefault="qualified" attributeFormDefault="unqualified">
+    <xs:element name="Person">
+      <xs:complexType>
+        <xs:sequence>
+          <xs:element ref="pc:DisplayName" minOccurs="0"/>
+          <xs:element ref="pc:AccountId" minOccurs="0"/>
+          <xs:element ref="pc:AccountType" minOccurs="0"/>
+        </xs:sequence>
+      </xs:complexType>
+    </xs:element>
+    <xs:element name="DisplayName" type="xs:string"/>
+    <xs:element name="AccountId" type="xs:string"/>
+    <xs:element name="AccountType" type="xs:string"/>
+    <xs:element name="BDCAssociatedEntity">
+      <xs:complexType>
+        <xs:sequence>
+          <xs:element ref="pc:BDCEntity" minOccurs="0" maxOccurs="unbounded"/>
+        </xs:sequence>
+        <xs:attribute ref="pc:EntityNamespace"/>
+        <xs:attribute ref="pc:EntityName"/>
+        <xs:attribute ref="pc:SystemInstanceName"/>
+        <xs:attribute ref="pc:AssociationName"/>
+      </xs:complexType>
+    </xs:element>
+    <xs:attribute name="EntityNamespace" type="xs:string"/>
+    <xs:attribute name="EntityName" type="xs:string"/>
+    <xs:attribute name="SystemInstanceName" type="xs:string"/>
+    <xs:attribute name="AssociationName" type="xs:string"/>
+    <xs:element name="BDCEntity">
+      <xs:complexType>
+        <xs:sequence>
+          <xs:element ref="pc:EntityDisplayName" minOccurs="0"/>
+          <xs:element ref="pc:EntityInstanceReference" minOccurs="0"/>
+          <xs:element ref="pc:EntityId1" minOccurs="0"/>
+          <xs:element ref="pc:EntityId2" minOccurs="0"/>
+          <xs:element ref="pc:EntityId3" minOccurs="0"/>
+          <xs:element ref="pc:EntityId4" minOccurs="0"/>
+          <xs:element ref="pc:EntityId5" minOccurs="0"/>
+        </xs:sequence>
+      </xs:complexType>
+    </xs:element>
+    <xs:element name="EntityDisplayName" type="xs:string"/>
+    <xs:element name="EntityInstanceReference" type="xs:string"/>
+    <xs:element name="EntityId1" type="xs:string"/>
+    <xs:element name="EntityId2" type="xs:string"/>
+    <xs:element name="EntityId3" type="xs:string"/>
+    <xs:element name="EntityId4" type="xs:string"/>
+    <xs:element name="EntityId5" type="xs:string"/>
+    <xs:element name="Terms">
+      <xs:complexType>
+        <xs:sequence>
+          <xs:element ref="pc:TermInfo" minOccurs="0" maxOccurs="unbounded"/>
+        </xs:sequence>
+      </xs:complexType>
+    </xs:element>
+    <xs:element name="TermInfo">
+      <xs:complexType>
+        <xs:sequence>
+          <xs:element ref="pc:TermName" minOccurs="0"/>
+          <xs:element ref="pc:TermId" minOccurs="0"/>
+        </xs:sequence>
+      </xs:complexType>
+    </xs:element>
+    <xs:element name="TermName" type="xs:string"/>
+    <xs:element name="TermId" type="xs:string"/>
+  </xs:schema>
+</ct:contentTypeSchema>
+</file>
+
+<file path=customXml/item2.xml><?xml version="1.0" encoding="utf-8"?>
+<?mso-contentType ?>
+<FormTemplates xmlns="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms">
+  <Display>DocumentLibraryForm</Display>
+  <Edit>DocumentLibraryForm</Edit>
+  <New>DocumentLibraryForm</New>
+</FormTemplates>
+</file>
+
+<file path=customXml/item3.xml><?xml version="1.0" encoding="utf-8"?>
+<p:properties xmlns:p="http://schemas.microsoft.com/office/2006/metadata/properties" xmlns:xsi="http://www.w3.org/2001/XMLSchema-instance" xmlns:pc="http://schemas.microsoft.com/office/infopath/2007/PartnerControls">
+  <documentManagement>
+    <TaxCatchAll xmlns="3115b7d7-2391-4f2b-9f7a-90cea2b5d85c" xsi:nil="true"/>
+    <lcf76f155ced4ddcb4097134ff3c332f xmlns="d322d7be-b080-46d2-ae8a-a9780d0c4321">
+      <Terms xmlns="http://schemas.microsoft.com/office/infopath/2007/PartnerControls"/>
+    </lcf76f155ced4ddcb4097134ff3c332f>
+  </documentManagement>
+</p:properties>
+</file>
+
+<file path=customXml/itemProps1.xml><?xml version="1.0" encoding="utf-8"?>
+<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{9604461F-7ECC-488D-9E8D-4BFB2D08684F}"/>
+</file>
+
+<file path=customXml/itemProps2.xml><?xml version="1.0" encoding="utf-8"?>
+<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{5CD6DF20-1D00-4A98-BEA4-AC1764B7D9FA}"/>
+</file>
+
+<file path=customXml/itemProps3.xml><?xml version="1.0" encoding="utf-8"?>
+<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{CFB3C1BA-9177-4072-AC1E-209AF84555C1}"/>
 </file>